--- a/ig/main/CodeSystem-TRE-R210-ActeSpecifique.xlsx
+++ b/ig/main/CodeSystem-TRE-R210-ActeSpecifique.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-30T12:00:00+01:00</t>
+    <t>2023-12-15T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-TRE-R210-ActeSpecifique.xlsx
+++ b/ig/main/CodeSystem-TRE-R210-ActeSpecifique.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4208" uniqueCount="2795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="2821">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:1.2.250.1.213.3.3.11</t>
+    <t>urn:oid:1.2.250.1.213.3.3.11</t>
   </si>
   <si>
     <t>Version</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-15T12:00:00+01:00</t>
+    <t>2024-01-26T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1246,7 +1246,7 @@
     <t>0182</t>
   </si>
   <si>
-    <t>Education thérapeutique - école de l'asthme</t>
+    <t>Education thérapeutique labellisée du patient asthmatique (école de l'asthme)</t>
   </si>
   <si>
     <t>0183</t>
@@ -3160,7 +3160,7 @@
     <t>0501</t>
   </si>
   <si>
-    <t>Vaccination internationale, conseil aux voyageurs (fièvre jaune, encéphalite...)</t>
+    <t>Vaccinations internationales et conseils aux voyageurs</t>
   </si>
   <si>
     <t>0502</t>
@@ -8368,7 +8368,7 @@
     <t>1381</t>
   </si>
   <si>
-    <t>Diagnostic complexe de l'endométriose</t>
+    <t>Diagnostic de l'endométriose complexe</t>
   </si>
   <si>
     <t>1382</t>
@@ -8399,6 +8399,84 @@
   </si>
   <si>
     <t>Suivi psychiatrique de la femme enceinte</t>
+  </si>
+  <si>
+    <t>1387</t>
+  </si>
+  <si>
+    <t>Conseil en anti infectieux</t>
+  </si>
+  <si>
+    <t>1388</t>
+  </si>
+  <si>
+    <t>Gestion des complications de l'infection par le VIH</t>
+  </si>
+  <si>
+    <t>1389</t>
+  </si>
+  <si>
+    <t>Initiation et suivi thérapeutique des hépatites virales</t>
+  </si>
+  <si>
+    <t>1390</t>
+  </si>
+  <si>
+    <t>Initiation, réévaluation et modification des anti rétroviraux</t>
+  </si>
+  <si>
+    <t>1391</t>
+  </si>
+  <si>
+    <t>Maladies vectorielles à tique (Lyme…)</t>
+  </si>
+  <si>
+    <t>1392</t>
+  </si>
+  <si>
+    <t>Prise en charge clinique des parasitoses</t>
+  </si>
+  <si>
+    <t>1393</t>
+  </si>
+  <si>
+    <t>Prise en charge des Infections chez les Immunodéprimés (ID)</t>
+  </si>
+  <si>
+    <t>1394</t>
+  </si>
+  <si>
+    <t>PEC diag et thérapeutique infections post-opé, sur prothèses, disp implantables</t>
+  </si>
+  <si>
+    <t>1395</t>
+  </si>
+  <si>
+    <t>Bilan diagnostic psychiatrique</t>
+  </si>
+  <si>
+    <t>1396</t>
+  </si>
+  <si>
+    <t>Prise en charge de l'anorexie précoce prépubère</t>
+  </si>
+  <si>
+    <t>1397</t>
+  </si>
+  <si>
+    <t>Prise en charge de l'hyperphagie boulimique</t>
+  </si>
+  <si>
+    <t>1398</t>
+  </si>
+  <si>
+    <t>Admission directe non programmée - PA</t>
+  </si>
+  <si>
+    <t>1399</t>
+  </si>
+  <si>
+    <t>Unité de réanimation pédiatrique de recours</t>
   </si>
 </sst>
 </file>
@@ -8766,7 +8844,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D1387"/>
+  <dimension ref="A1:D1400"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -25418,6 +25496,162 @@
       </c>
       <c r="D1387" s="2"/>
     </row>
+    <row r="1388">
+      <c r="A1388" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B1388" t="s" s="2">
+        <v>2795</v>
+      </c>
+      <c r="C1388" t="s" s="2">
+        <v>2796</v>
+      </c>
+      <c r="D1388" s="2"/>
+    </row>
+    <row r="1389">
+      <c r="A1389" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B1389" t="s" s="2">
+        <v>2797</v>
+      </c>
+      <c r="C1389" t="s" s="2">
+        <v>2798</v>
+      </c>
+      <c r="D1389" s="2"/>
+    </row>
+    <row r="1390">
+      <c r="A1390" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B1390" t="s" s="2">
+        <v>2799</v>
+      </c>
+      <c r="C1390" t="s" s="2">
+        <v>2800</v>
+      </c>
+      <c r="D1390" s="2"/>
+    </row>
+    <row r="1391">
+      <c r="A1391" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B1391" t="s" s="2">
+        <v>2801</v>
+      </c>
+      <c r="C1391" t="s" s="2">
+        <v>2802</v>
+      </c>
+      <c r="D1391" s="2"/>
+    </row>
+    <row r="1392">
+      <c r="A1392" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B1392" t="s" s="2">
+        <v>2803</v>
+      </c>
+      <c r="C1392" t="s" s="2">
+        <v>2804</v>
+      </c>
+      <c r="D1392" s="2"/>
+    </row>
+    <row r="1393">
+      <c r="A1393" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B1393" t="s" s="2">
+        <v>2805</v>
+      </c>
+      <c r="C1393" t="s" s="2">
+        <v>2806</v>
+      </c>
+      <c r="D1393" s="2"/>
+    </row>
+    <row r="1394">
+      <c r="A1394" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B1394" t="s" s="2">
+        <v>2807</v>
+      </c>
+      <c r="C1394" t="s" s="2">
+        <v>2808</v>
+      </c>
+      <c r="D1394" s="2"/>
+    </row>
+    <row r="1395">
+      <c r="A1395" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B1395" t="s" s="2">
+        <v>2809</v>
+      </c>
+      <c r="C1395" t="s" s="2">
+        <v>2810</v>
+      </c>
+      <c r="D1395" s="2"/>
+    </row>
+    <row r="1396">
+      <c r="A1396" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B1396" t="s" s="2">
+        <v>2811</v>
+      </c>
+      <c r="C1396" t="s" s="2">
+        <v>2812</v>
+      </c>
+      <c r="D1396" s="2"/>
+    </row>
+    <row r="1397">
+      <c r="A1397" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B1397" t="s" s="2">
+        <v>2813</v>
+      </c>
+      <c r="C1397" t="s" s="2">
+        <v>2814</v>
+      </c>
+      <c r="D1397" s="2"/>
+    </row>
+    <row r="1398">
+      <c r="A1398" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B1398" t="s" s="2">
+        <v>2815</v>
+      </c>
+      <c r="C1398" t="s" s="2">
+        <v>2816</v>
+      </c>
+      <c r="D1398" s="2"/>
+    </row>
+    <row r="1399">
+      <c r="A1399" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B1399" t="s" s="2">
+        <v>2817</v>
+      </c>
+      <c r="C1399" t="s" s="2">
+        <v>2818</v>
+      </c>
+      <c r="D1399" s="2"/>
+    </row>
+    <row r="1400">
+      <c r="A1400" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B1400" t="s" s="2">
+        <v>2819</v>
+      </c>
+      <c r="C1400" t="s" s="2">
+        <v>2820</v>
+      </c>
+      <c r="D1400" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ig/main/CodeSystem-TRE-R210-ActeSpecifique.xlsx
+++ b/ig/main/CodeSystem-TRE-R210-ActeSpecifique.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/main/CodeSystem-TRE-R210-ActeSpecifique.xlsx
+++ b/ig/main/CodeSystem-TRE-R210-ActeSpecifique.xlsx
@@ -73,7 +73,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
     <t>Description</t>

--- a/ig/main/CodeSystem-TRE-R210-ActeSpecifique.xlsx
+++ b/ig/main/CodeSystem-TRE-R210-ActeSpecifique.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-29T12:00:00+01:00</t>
+    <t>2024-04-26T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3073,7 +3073,7 @@
     <t>Orthèse pour traitement de l'apnée du sommeil</t>
   </si>
   <si>
-    <t xml:space="preserve">Traitement d'apnée du sommeil grâce à un appareil dentaire ou une orthèse d'avancée mandibulaire </t>
+    <t>Traitement d'apnée du sommeil grâce à un appareil dentaire ou une orthèse d'avancée mandibulaire</t>
   </si>
   <si>
     <t>0470</t>
@@ -6583,7 +6583,7 @@
     <t>Chirurgie carcinologique intracrânienne</t>
   </si>
   <si>
-    <t xml:space="preserve">Chirurgie qui a pour but l'extraction la plus complète possible d'une tumeur située à l'intérieur de la boite crânienne </t>
+    <t>Chirurgie qui a pour but l'extraction la plus complète possible d'une tumeur située à l'intérieur de la boite crânienne</t>
   </si>
   <si>
     <t>1034</t>
@@ -7171,7 +7171,7 @@
     <t>Test au baclofène intrathécal</t>
   </si>
   <si>
-    <t xml:space="preserve">Test thérapeutique qui consiste à injecter une dose de baclofène dans le liquide céphalo-rachidien  </t>
+    <t>Test thérapeutique qui consiste à injecter une dose de baclofène dans le liquide céphalo-rachidien</t>
   </si>
   <si>
     <t>1113</t>
@@ -7360,7 +7360,7 @@
     <t>Angio IRM cérébral</t>
   </si>
   <si>
-    <t xml:space="preserve">Examen radiologique réalisé grâce à un IRM avec ou sans injection de produit de contraste permettant de visualiser les vaisseaux cérébraux et notamment les principales artères et veines cérébrales ce qui permettra le diagnostic d'une sténose artérielle, d'une thrombose veineuse et tous autres lésions de gros vaisseaux. </t>
+    <t>Examen radiologique réalisé grâce à un IRM avec ou sans injection de produit de contraste permettant de visualiser les vaisseaux cérébraux et notamment les principales artères et veines cérébrales ce qui permettra le diagnostic d'une sténose artérielle, d'une thrombose veineuse et tous autres lésions de gros vaisseaux.</t>
   </si>
   <si>
     <t>1136</t>
@@ -7468,7 +7468,7 @@
     <t>1152</t>
   </si>
   <si>
-    <t xml:space="preserve">Chirurgie qui repose sur l'exérèse de l'ensemble des lésions d'endométriose, sa complexité va dépendre de l'extension de la maladie   </t>
+    <t>Chirurgie qui repose sur l'exérèse de l'ensemble des lésions d'endométriose, sa complexité va dépendre de l'extension de la maladie</t>
   </si>
   <si>
     <t>1153</t>
@@ -7861,7 +7861,7 @@
     <t>Implantation de sphincter artificiel</t>
   </si>
   <si>
-    <t xml:space="preserve">Evacuation d'une infection bactérienne de la peau et du tissu sous-cutané d'un doigt collecté en un abcès </t>
+    <t>Evacuation d'une infection bactérienne de la peau et du tissu sous-cutané d'un doigt collecté en un abcès</t>
   </si>
   <si>
     <t>1215</t>
@@ -8401,7 +8401,7 @@
     <t>Programme d'ETP labellisée - Maladies respiratoires / Tabacologie</t>
   </si>
   <si>
-    <t xml:space="preserve">Ensemble coordonné d'activités éducatives destinées aux patients et à leur entourage et animées par une équipe de professionnels de santé avec l'aide d'autres acteurs (éducateur en activité physique adaptée, psychologue, etc.) pour un patient atteint de maladie respiratoire chronique et/ou atteint d'une addiction au tabac. </t>
+    <t>Ensemble coordonné d'activités éducatives destinées aux patients et à leur entourage et animées par une équipe de professionnels de santé avec l'aide d'autres acteurs (éducateur en activité physique adaptée, psychologue, etc.) pour un patient atteint de maladie respiratoire chronique et/ou atteint d'une addiction au tabac.</t>
   </si>
   <si>
     <t>1293</t>
@@ -8584,7 +8584,7 @@
     <t>SMR Lab réadaptation troubles du langage et des apprentissages</t>
   </si>
   <si>
-    <t xml:space="preserve">Unités de réadaptation labellisée prenant en charge des patients souffrant de troubles spécifiques du langage et des apprentissages (TSLA) appelés communément « troubles dys » sont la conséquence d'anomalies dans le développement cognitif de l'enfant. </t>
+    <t>Unités de réadaptation labellisée prenant en charge des patients souffrant de troubles spécifiques du langage et des apprentissages (TSLA) appelés communément « troubles dys » sont la conséquence d'anomalies dans le développement cognitif de l'enfant.</t>
   </si>
   <si>
     <t>1318</t>
@@ -8812,7 +8812,7 @@
     <t>Accouchement à domicile</t>
   </si>
   <si>
-    <t xml:space="preserve">Accouchement ayant un pronostic physiologique accompagné par une sage-femme dans un lieu de vie hors établissement de santé (domicile parental, maison familiale, gîte…). </t>
+    <t>Accouchement ayant un pronostic physiologique accompagné par une sage-femme dans un lieu de vie hors établissement de santé (domicile parental, maison familiale, gîte…).</t>
   </si>
   <si>
     <t>1357</t>

--- a/ig/main/CodeSystem-TRE-R210-ActeSpecifique.xlsx
+++ b/ig/main/CodeSystem-TRE-R210-ActeSpecifique.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4554" uniqueCount="3099">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4661" uniqueCount="3173">
   <si>
     <t>Property</t>
   </si>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T12:00:00+01:00</t>
+    <t>2024-06-28T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4960,7 +4960,7 @@
     <t>0776</t>
   </si>
   <si>
-    <t>Accompagnement aux pratiques numériques</t>
+    <t>Accompagnement aux pratiques numériques et assistance informatique</t>
   </si>
   <si>
     <t>0777</t>
@@ -8803,7 +8803,7 @@
     <t>1354</t>
   </si>
   <si>
-    <t>PEC en ACT en hébergement collectif</t>
+    <t>Prise en charge en Appartements de Coordination Thérapeutique (ACT) partagé</t>
   </si>
   <si>
     <t>Prise en charge, comprenant des soins médicaux, psychologiques ou sociaux et un suivi régulier, de résidents hébergés dans des logements réunis à une adresse commune.</t>
@@ -8812,7 +8812,7 @@
     <t>1355</t>
   </si>
   <si>
-    <t>PEC en ACT en appartements en diffus</t>
+    <t>Prise en charge en Appartements de Coordination Thérapeutique (ACT) individuel</t>
   </si>
   <si>
     <t>Prise en charge comprenant des soins médicaux, psychologiques ou sociaux et un suivi régulier, de résidents hébergés dans différents bâtiments répartis dans la ville.</t>
@@ -9157,12 +9157,18 @@
     <t>Accueil et prise en charge du polytraumatisé sévère</t>
   </si>
   <si>
+    <t>Structure équipée et dotée en personnel pour permettre une chaîne de soins structurée faisant intervenir le plus rapidement possible de nombreuses spécialités médicales et chirurgicales, pour prodiguer des soins aux patients souffrant de blessures traumatiques graves telles que des chutes, des collisions de véhicules à moteur ou des blessures par balle.</t>
+  </si>
+  <si>
     <t>1401</t>
   </si>
   <si>
     <t>Algologie périopératoire</t>
   </si>
   <si>
+    <t>Prise en charges des causes et le traitement de la douleur durant la période entourant un acte chirurgical ou interventionnel.</t>
+  </si>
+  <si>
     <t>1402</t>
   </si>
   <si>
@@ -9181,6 +9187,9 @@
     <t>Assistance circulatoire extracorporelle par ECMO</t>
   </si>
   <si>
+    <t>Pompe permettant d'assurer des débits sanguins extracorporels au travers d'un oxygénateur assurant les échanges gazeux. C'est une technique dérivée de la circulation extracorporelle, le sang est prélevé et renvoyé au patient à l'aide de canules vasculaires de très gros calibre, positionnées sur des axes vasculaires majeurs (fémorales, jugulaires).</t>
+  </si>
+  <si>
     <t>1405</t>
   </si>
   <si>
@@ -9211,6 +9220,9 @@
     <t>Centre labellisé Covid-Long</t>
   </si>
   <si>
+    <t>Structure reconnue et labellisée dont la mission est de diagnostiquer, établir un plan de soins personnalisé, orienter les patients et s'assurer de la mise en oeuvre effective du plan de soins, pour le patient souffrant d'un COVID long, cette prise en charge s'opèrera après orientation par la médecine de ville ou un autre service hospitalier.</t>
+  </si>
+  <si>
     <t>1410</t>
   </si>
   <si>
@@ -9289,18 +9301,27 @@
     <t>Récupération améliorée après chirurgie (RAAC) orthopédique</t>
   </si>
   <si>
+    <t>Ensemble de mesures (avant, pendant et après une intervention chirurgicale) visant à minimiser le traumatisme subi par le patient et donc accélérer sa récupération à la fois sur le plan général et sur le membre opéré : c'est donc une approche de prise en charge globale du patient favorisant le rétablissement précoce de ses capacités après la chirurgie orthopédique</t>
+  </si>
+  <si>
     <t>1423</t>
   </si>
   <si>
     <t>Récupération améliorée après chirurgie (RAAC) digestive</t>
   </si>
   <si>
+    <t>Ensemble de mesures (avant, pendant et après une intervention chirurgicale) visant à minimiser le traumatisme subi par le patient et donc accélérer sa récupération à la fois sur le plan général et sur la fonction opérée : c'est donc une approche de prise en charge globale du patient favorisant le rétablissement précoce de ses capacités après la chirurgie digestive lourde</t>
+  </si>
+  <si>
     <t>1424</t>
   </si>
   <si>
     <t>Récupération améliorée après chirurgie (RAAC) gynécologique</t>
   </si>
   <si>
+    <t>Ensemble de mesures (avant, pendant et après une intervention chirurgicale) visant à minimiser le traumatisme subi par le patient et donc accélérer sa récupération à la fois sur le plan général et sur la fonction opérée : c'est donc une approche de prise en charge globale du patient favorisant le rétablissement précoce de ses capacités après la chirurgie gynécologique lourde</t>
+  </si>
+  <si>
     <t>1425</t>
   </si>
   <si>
@@ -9311,6 +9332,207 @@
   </si>
   <si>
     <t>Traitement du psychotraumatisme</t>
+  </si>
+  <si>
+    <t>Prise en charge et le traitement de l'ensemble des troubles psychiques (reviviscences envahissantes, souffrance morale, etc.) qui peuvent survenir chez une victime dans les suites d'une exposition à un évènement traumatique (accidents graves, violences, catastrophes, etc.).</t>
+  </si>
+  <si>
+    <t>1427</t>
+  </si>
+  <si>
+    <t>Recherche d'ADN foetal libre</t>
+  </si>
+  <si>
+    <t>1428</t>
+  </si>
+  <si>
+    <t>Centre de réhabilitation psychosociale - Centre de recours labellisé</t>
+  </si>
+  <si>
+    <t>1429</t>
+  </si>
+  <si>
+    <t>Centre de réhabilitation psychosociale - Centre de proximité labellisé</t>
+  </si>
+  <si>
+    <t>1430</t>
+  </si>
+  <si>
+    <t>Accompagnement à l'éducation de l'enfant sans violence éducative ordinaire (VEO)</t>
+  </si>
+  <si>
+    <t>1431</t>
+  </si>
+  <si>
+    <t>Accompagnement d'un patient pour téléconsultation médicale</t>
+  </si>
+  <si>
+    <t>1432</t>
+  </si>
+  <si>
+    <t>Appui à l'accueil inclusif (référent)</t>
+  </si>
+  <si>
+    <t>1433</t>
+  </si>
+  <si>
+    <t>Evaluation infirmière gériatrique multidimensionnelle</t>
+  </si>
+  <si>
+    <t>1434</t>
+  </si>
+  <si>
+    <t>Guidance parentale (psychoéducation)</t>
+  </si>
+  <si>
+    <t>1435</t>
+  </si>
+  <si>
+    <t>Index de pression systolique (IPS)</t>
+  </si>
+  <si>
+    <t>1436</t>
+  </si>
+  <si>
+    <t>Rédaction de certificat de décès</t>
+  </si>
+  <si>
+    <t>1437</t>
+  </si>
+  <si>
+    <t>Réalisation de "Mon bilan prévention"</t>
+  </si>
+  <si>
+    <t>1438</t>
+  </si>
+  <si>
+    <t>Prise en charge infirmière de récupération améliorée après chirurgie (RAAC)</t>
+  </si>
+  <si>
+    <t>1439</t>
+  </si>
+  <si>
+    <t>Prise en charge infirmière des douleurs chroniques</t>
+  </si>
+  <si>
+    <t>1440</t>
+  </si>
+  <si>
+    <t>Prise en charge infirmière des maladies psychiatriques</t>
+  </si>
+  <si>
+    <t>1441</t>
+  </si>
+  <si>
+    <t>Prise en charge infirmière des pathologies cardiaques</t>
+  </si>
+  <si>
+    <t>1442</t>
+  </si>
+  <si>
+    <t>Prise en charge infirmière des pathologies respiratoires</t>
+  </si>
+  <si>
+    <t>1443</t>
+  </si>
+  <si>
+    <t>Prise en charge infirmière des soins palliatifs</t>
+  </si>
+  <si>
+    <t>1444</t>
+  </si>
+  <si>
+    <t>Prise en charge infirmière des troubles vésico-sphinctériens (TVS)</t>
+  </si>
+  <si>
+    <t>1445</t>
+  </si>
+  <si>
+    <t>Prise en charge infirmière du diabète</t>
+  </si>
+  <si>
+    <t>1446</t>
+  </si>
+  <si>
+    <t>Référent santé et accueil inclusif des établissements d'accueil du jeune enfant</t>
+  </si>
+  <si>
+    <t>1447</t>
+  </si>
+  <si>
+    <t>Prescription de vaccination</t>
+  </si>
+  <si>
+    <t>1448</t>
+  </si>
+  <si>
+    <t>Santé environnementale</t>
+  </si>
+  <si>
+    <t>1450</t>
+  </si>
+  <si>
+    <t>Soins infirmiers de dialyse péritonéale</t>
+  </si>
+  <si>
+    <t>1451</t>
+  </si>
+  <si>
+    <t>Accompagnement à la transition, au changement d'environnement, au deuil</t>
+  </si>
+  <si>
+    <t>1452</t>
+  </si>
+  <si>
+    <t>Soins infirmiers d'hémodialyse</t>
+  </si>
+  <si>
+    <t>1453</t>
+  </si>
+  <si>
+    <t>Repérage, accompagnement des troubles (neuro)développementaux et comportementaux</t>
+  </si>
+  <si>
+    <t>1454</t>
+  </si>
+  <si>
+    <t>Evaluation et suivi standardisé des commotions cérébrales</t>
+  </si>
+  <si>
+    <t>1455</t>
+  </si>
+  <si>
+    <t>Surveillance et administration de traitement hémophilique</t>
+  </si>
+  <si>
+    <t>1456</t>
+  </si>
+  <si>
+    <t>Surveillance infirmière et remplissage de pompe à morphine</t>
+  </si>
+  <si>
+    <t>1457</t>
+  </si>
+  <si>
+    <t>Visite à domicile infirmière puéricultrice post-natale</t>
+  </si>
+  <si>
+    <t>1458</t>
+  </si>
+  <si>
+    <t>Exploration vasculaire d'effort maximum chez le sportif</t>
+  </si>
+  <si>
+    <t>1459</t>
+  </si>
+  <si>
+    <t>Laximétrie dynamique automatisée du genou (LDA)</t>
+  </si>
+  <si>
+    <t>1460</t>
+  </si>
+  <si>
+    <t>Pressothérapie</t>
   </si>
 </sst>
 </file>
@@ -9686,7 +9908,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D1427"/>
+  <dimension ref="A1:D1460"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -26952,29 +27174,33 @@
       <c r="C1401" t="s" s="2">
         <v>3046</v>
       </c>
-      <c r="D1401" s="2"/>
+      <c r="D1401" t="s" s="2">
+        <v>3047</v>
+      </c>
     </row>
     <row r="1402">
       <c r="A1402" t="s" s="2">
         <v>48</v>
       </c>
       <c r="B1402" t="s" s="2">
-        <v>3047</v>
+        <v>3048</v>
       </c>
       <c r="C1402" t="s" s="2">
-        <v>3048</v>
-      </c>
-      <c r="D1402" s="2"/>
+        <v>3049</v>
+      </c>
+      <c r="D1402" t="s" s="2">
+        <v>3050</v>
+      </c>
     </row>
     <row r="1403">
       <c r="A1403" t="s" s="2">
         <v>48</v>
       </c>
       <c r="B1403" t="s" s="2">
-        <v>3049</v>
+        <v>3051</v>
       </c>
       <c r="C1403" t="s" s="2">
-        <v>3050</v>
+        <v>3052</v>
       </c>
       <c r="D1403" s="2"/>
     </row>
@@ -26983,10 +27209,10 @@
         <v>48</v>
       </c>
       <c r="B1404" t="s" s="2">
-        <v>3051</v>
+        <v>3053</v>
       </c>
       <c r="C1404" t="s" s="2">
-        <v>3052</v>
+        <v>3054</v>
       </c>
       <c r="D1404" s="2"/>
     </row>
@@ -26995,22 +27221,24 @@
         <v>48</v>
       </c>
       <c r="B1405" t="s" s="2">
-        <v>3053</v>
+        <v>3055</v>
       </c>
       <c r="C1405" t="s" s="2">
-        <v>3054</v>
-      </c>
-      <c r="D1405" s="2"/>
+        <v>3056</v>
+      </c>
+      <c r="D1405" t="s" s="2">
+        <v>3057</v>
+      </c>
     </row>
     <row r="1406">
       <c r="A1406" t="s" s="2">
         <v>48</v>
       </c>
       <c r="B1406" t="s" s="2">
-        <v>3055</v>
+        <v>3058</v>
       </c>
       <c r="C1406" t="s" s="2">
-        <v>3056</v>
+        <v>3059</v>
       </c>
       <c r="D1406" s="2"/>
     </row>
@@ -27019,10 +27247,10 @@
         <v>48</v>
       </c>
       <c r="B1407" t="s" s="2">
-        <v>3057</v>
+        <v>3060</v>
       </c>
       <c r="C1407" t="s" s="2">
-        <v>3058</v>
+        <v>3061</v>
       </c>
       <c r="D1407" s="2"/>
     </row>
@@ -27031,10 +27259,10 @@
         <v>48</v>
       </c>
       <c r="B1408" t="s" s="2">
-        <v>3059</v>
+        <v>3062</v>
       </c>
       <c r="C1408" t="s" s="2">
-        <v>3060</v>
+        <v>3063</v>
       </c>
       <c r="D1408" s="2"/>
     </row>
@@ -27043,10 +27271,10 @@
         <v>48</v>
       </c>
       <c r="B1409" t="s" s="2">
-        <v>3061</v>
+        <v>3064</v>
       </c>
       <c r="C1409" t="s" s="2">
-        <v>3062</v>
+        <v>3065</v>
       </c>
       <c r="D1409" s="2"/>
     </row>
@@ -27055,22 +27283,24 @@
         <v>48</v>
       </c>
       <c r="B1410" t="s" s="2">
-        <v>3063</v>
+        <v>3066</v>
       </c>
       <c r="C1410" t="s" s="2">
-        <v>3064</v>
-      </c>
-      <c r="D1410" s="2"/>
+        <v>3067</v>
+      </c>
+      <c r="D1410" t="s" s="2">
+        <v>3068</v>
+      </c>
     </row>
     <row r="1411">
       <c r="A1411" t="s" s="2">
         <v>48</v>
       </c>
       <c r="B1411" t="s" s="2">
-        <v>3065</v>
+        <v>3069</v>
       </c>
       <c r="C1411" t="s" s="2">
-        <v>3066</v>
+        <v>3070</v>
       </c>
       <c r="D1411" s="2"/>
     </row>
@@ -27079,10 +27309,10 @@
         <v>48</v>
       </c>
       <c r="B1412" t="s" s="2">
-        <v>3067</v>
+        <v>3071</v>
       </c>
       <c r="C1412" t="s" s="2">
-        <v>3068</v>
+        <v>3072</v>
       </c>
       <c r="D1412" s="2"/>
     </row>
@@ -27091,10 +27321,10 @@
         <v>48</v>
       </c>
       <c r="B1413" t="s" s="2">
-        <v>3069</v>
+        <v>3073</v>
       </c>
       <c r="C1413" t="s" s="2">
-        <v>3070</v>
+        <v>3074</v>
       </c>
       <c r="D1413" s="2"/>
     </row>
@@ -27103,10 +27333,10 @@
         <v>48</v>
       </c>
       <c r="B1414" t="s" s="2">
-        <v>3071</v>
+        <v>3075</v>
       </c>
       <c r="C1414" t="s" s="2">
-        <v>3072</v>
+        <v>3076</v>
       </c>
       <c r="D1414" s="2"/>
     </row>
@@ -27115,10 +27345,10 @@
         <v>48</v>
       </c>
       <c r="B1415" t="s" s="2">
-        <v>3073</v>
+        <v>3077</v>
       </c>
       <c r="C1415" t="s" s="2">
-        <v>3074</v>
+        <v>3078</v>
       </c>
       <c r="D1415" s="2"/>
     </row>
@@ -27127,10 +27357,10 @@
         <v>48</v>
       </c>
       <c r="B1416" t="s" s="2">
-        <v>3075</v>
+        <v>3079</v>
       </c>
       <c r="C1416" t="s" s="2">
-        <v>3076</v>
+        <v>3080</v>
       </c>
       <c r="D1416" s="2"/>
     </row>
@@ -27139,10 +27369,10 @@
         <v>48</v>
       </c>
       <c r="B1417" t="s" s="2">
-        <v>3077</v>
+        <v>3081</v>
       </c>
       <c r="C1417" t="s" s="2">
-        <v>3078</v>
+        <v>3082</v>
       </c>
       <c r="D1417" s="2"/>
     </row>
@@ -27151,10 +27381,10 @@
         <v>48</v>
       </c>
       <c r="B1418" t="s" s="2">
-        <v>3079</v>
+        <v>3083</v>
       </c>
       <c r="C1418" t="s" s="2">
-        <v>3080</v>
+        <v>3084</v>
       </c>
       <c r="D1418" s="2"/>
     </row>
@@ -27163,10 +27393,10 @@
         <v>48</v>
       </c>
       <c r="B1419" t="s" s="2">
-        <v>3081</v>
+        <v>3085</v>
       </c>
       <c r="C1419" t="s" s="2">
-        <v>3082</v>
+        <v>3086</v>
       </c>
       <c r="D1419" s="2"/>
     </row>
@@ -27175,10 +27405,10 @@
         <v>48</v>
       </c>
       <c r="B1420" t="s" s="2">
-        <v>3083</v>
+        <v>3087</v>
       </c>
       <c r="C1420" t="s" s="2">
-        <v>3084</v>
+        <v>3088</v>
       </c>
       <c r="D1420" s="2"/>
     </row>
@@ -27187,10 +27417,10 @@
         <v>48</v>
       </c>
       <c r="B1421" t="s" s="2">
-        <v>3085</v>
+        <v>3089</v>
       </c>
       <c r="C1421" t="s" s="2">
-        <v>3086</v>
+        <v>3090</v>
       </c>
       <c r="D1421" s="2"/>
     </row>
@@ -27199,10 +27429,10 @@
         <v>48</v>
       </c>
       <c r="B1422" t="s" s="2">
-        <v>3087</v>
+        <v>3091</v>
       </c>
       <c r="C1422" t="s" s="2">
-        <v>3088</v>
+        <v>3092</v>
       </c>
       <c r="D1422" s="2"/>
     </row>
@@ -27211,46 +27441,52 @@
         <v>48</v>
       </c>
       <c r="B1423" t="s" s="2">
-        <v>3089</v>
+        <v>3093</v>
       </c>
       <c r="C1423" t="s" s="2">
-        <v>3090</v>
-      </c>
-      <c r="D1423" s="2"/>
+        <v>3094</v>
+      </c>
+      <c r="D1423" t="s" s="2">
+        <v>3095</v>
+      </c>
     </row>
     <row r="1424">
       <c r="A1424" t="s" s="2">
         <v>48</v>
       </c>
       <c r="B1424" t="s" s="2">
-        <v>3091</v>
+        <v>3096</v>
       </c>
       <c r="C1424" t="s" s="2">
-        <v>3092</v>
-      </c>
-      <c r="D1424" s="2"/>
+        <v>3097</v>
+      </c>
+      <c r="D1424" t="s" s="2">
+        <v>3098</v>
+      </c>
     </row>
     <row r="1425">
       <c r="A1425" t="s" s="2">
         <v>48</v>
       </c>
       <c r="B1425" t="s" s="2">
-        <v>3093</v>
+        <v>3099</v>
       </c>
       <c r="C1425" t="s" s="2">
-        <v>3094</v>
-      </c>
-      <c r="D1425" s="2"/>
+        <v>3100</v>
+      </c>
+      <c r="D1425" t="s" s="2">
+        <v>3101</v>
+      </c>
     </row>
     <row r="1426">
       <c r="A1426" t="s" s="2">
         <v>48</v>
       </c>
       <c r="B1426" t="s" s="2">
-        <v>3095</v>
+        <v>3102</v>
       </c>
       <c r="C1426" t="s" s="2">
-        <v>3096</v>
+        <v>3103</v>
       </c>
       <c r="D1426" s="2"/>
     </row>
@@ -27259,12 +27495,410 @@
         <v>48</v>
       </c>
       <c r="B1427" t="s" s="2">
-        <v>3097</v>
+        <v>3104</v>
       </c>
       <c r="C1427" t="s" s="2">
-        <v>3098</v>
-      </c>
-      <c r="D1427" s="2"/>
+        <v>3105</v>
+      </c>
+      <c r="D1427" t="s" s="2">
+        <v>3106</v>
+      </c>
+    </row>
+    <row r="1428">
+      <c r="A1428" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B1428" t="s" s="2">
+        <v>3107</v>
+      </c>
+      <c r="C1428" t="s" s="2">
+        <v>3108</v>
+      </c>
+      <c r="D1428" s="2"/>
+    </row>
+    <row r="1429">
+      <c r="A1429" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B1429" t="s" s="2">
+        <v>3109</v>
+      </c>
+      <c r="C1429" t="s" s="2">
+        <v>3110</v>
+      </c>
+      <c r="D1429" s="2"/>
+    </row>
+    <row r="1430">
+      <c r="A1430" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B1430" t="s" s="2">
+        <v>3111</v>
+      </c>
+      <c r="C1430" t="s" s="2">
+        <v>3112</v>
+      </c>
+      <c r="D1430" s="2"/>
+    </row>
+    <row r="1431">
+      <c r="A1431" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B1431" t="s" s="2">
+        <v>3113</v>
+      </c>
+      <c r="C1431" t="s" s="2">
+        <v>3114</v>
+      </c>
+      <c r="D1431" s="2"/>
+    </row>
+    <row r="1432">
+      <c r="A1432" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B1432" t="s" s="2">
+        <v>3115</v>
+      </c>
+      <c r="C1432" t="s" s="2">
+        <v>3116</v>
+      </c>
+      <c r="D1432" s="2"/>
+    </row>
+    <row r="1433">
+      <c r="A1433" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B1433" t="s" s="2">
+        <v>3117</v>
+      </c>
+      <c r="C1433" t="s" s="2">
+        <v>3118</v>
+      </c>
+      <c r="D1433" s="2"/>
+    </row>
+    <row r="1434">
+      <c r="A1434" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B1434" t="s" s="2">
+        <v>3119</v>
+      </c>
+      <c r="C1434" t="s" s="2">
+        <v>3120</v>
+      </c>
+      <c r="D1434" s="2"/>
+    </row>
+    <row r="1435">
+      <c r="A1435" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B1435" t="s" s="2">
+        <v>3121</v>
+      </c>
+      <c r="C1435" t="s" s="2">
+        <v>3122</v>
+      </c>
+      <c r="D1435" s="2"/>
+    </row>
+    <row r="1436">
+      <c r="A1436" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B1436" t="s" s="2">
+        <v>3123</v>
+      </c>
+      <c r="C1436" t="s" s="2">
+        <v>3124</v>
+      </c>
+      <c r="D1436" s="2"/>
+    </row>
+    <row r="1437">
+      <c r="A1437" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B1437" t="s" s="2">
+        <v>3125</v>
+      </c>
+      <c r="C1437" t="s" s="2">
+        <v>3126</v>
+      </c>
+      <c r="D1437" s="2"/>
+    </row>
+    <row r="1438">
+      <c r="A1438" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B1438" t="s" s="2">
+        <v>3127</v>
+      </c>
+      <c r="C1438" t="s" s="2">
+        <v>3128</v>
+      </c>
+      <c r="D1438" s="2"/>
+    </row>
+    <row r="1439">
+      <c r="A1439" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B1439" t="s" s="2">
+        <v>3129</v>
+      </c>
+      <c r="C1439" t="s" s="2">
+        <v>3130</v>
+      </c>
+      <c r="D1439" s="2"/>
+    </row>
+    <row r="1440">
+      <c r="A1440" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B1440" t="s" s="2">
+        <v>3131</v>
+      </c>
+      <c r="C1440" t="s" s="2">
+        <v>3132</v>
+      </c>
+      <c r="D1440" s="2"/>
+    </row>
+    <row r="1441">
+      <c r="A1441" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B1441" t="s" s="2">
+        <v>3133</v>
+      </c>
+      <c r="C1441" t="s" s="2">
+        <v>3134</v>
+      </c>
+      <c r="D1441" s="2"/>
+    </row>
+    <row r="1442">
+      <c r="A1442" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B1442" t="s" s="2">
+        <v>3135</v>
+      </c>
+      <c r="C1442" t="s" s="2">
+        <v>3136</v>
+      </c>
+      <c r="D1442" s="2"/>
+    </row>
+    <row r="1443">
+      <c r="A1443" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B1443" t="s" s="2">
+        <v>3137</v>
+      </c>
+      <c r="C1443" t="s" s="2">
+        <v>3138</v>
+      </c>
+      <c r="D1443" s="2"/>
+    </row>
+    <row r="1444">
+      <c r="A1444" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B1444" t="s" s="2">
+        <v>3139</v>
+      </c>
+      <c r="C1444" t="s" s="2">
+        <v>3140</v>
+      </c>
+      <c r="D1444" s="2"/>
+    </row>
+    <row r="1445">
+      <c r="A1445" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B1445" t="s" s="2">
+        <v>3141</v>
+      </c>
+      <c r="C1445" t="s" s="2">
+        <v>3142</v>
+      </c>
+      <c r="D1445" s="2"/>
+    </row>
+    <row r="1446">
+      <c r="A1446" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B1446" t="s" s="2">
+        <v>3143</v>
+      </c>
+      <c r="C1446" t="s" s="2">
+        <v>3144</v>
+      </c>
+      <c r="D1446" s="2"/>
+    </row>
+    <row r="1447">
+      <c r="A1447" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B1447" t="s" s="2">
+        <v>3145</v>
+      </c>
+      <c r="C1447" t="s" s="2">
+        <v>3146</v>
+      </c>
+      <c r="D1447" s="2"/>
+    </row>
+    <row r="1448">
+      <c r="A1448" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B1448" t="s" s="2">
+        <v>3147</v>
+      </c>
+      <c r="C1448" t="s" s="2">
+        <v>3148</v>
+      </c>
+      <c r="D1448" s="2"/>
+    </row>
+    <row r="1449">
+      <c r="A1449" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B1449" t="s" s="2">
+        <v>3149</v>
+      </c>
+      <c r="C1449" t="s" s="2">
+        <v>3150</v>
+      </c>
+      <c r="D1449" s="2"/>
+    </row>
+    <row r="1450">
+      <c r="A1450" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B1450" t="s" s="2">
+        <v>3151</v>
+      </c>
+      <c r="C1450" t="s" s="2">
+        <v>3152</v>
+      </c>
+      <c r="D1450" s="2"/>
+    </row>
+    <row r="1451">
+      <c r="A1451" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B1451" t="s" s="2">
+        <v>3153</v>
+      </c>
+      <c r="C1451" t="s" s="2">
+        <v>3154</v>
+      </c>
+      <c r="D1451" s="2"/>
+    </row>
+    <row r="1452">
+      <c r="A1452" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B1452" t="s" s="2">
+        <v>3155</v>
+      </c>
+      <c r="C1452" t="s" s="2">
+        <v>3156</v>
+      </c>
+      <c r="D1452" s="2"/>
+    </row>
+    <row r="1453">
+      <c r="A1453" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B1453" t="s" s="2">
+        <v>3157</v>
+      </c>
+      <c r="C1453" t="s" s="2">
+        <v>3158</v>
+      </c>
+      <c r="D1453" s="2"/>
+    </row>
+    <row r="1454">
+      <c r="A1454" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B1454" t="s" s="2">
+        <v>3159</v>
+      </c>
+      <c r="C1454" t="s" s="2">
+        <v>3160</v>
+      </c>
+      <c r="D1454" s="2"/>
+    </row>
+    <row r="1455">
+      <c r="A1455" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B1455" t="s" s="2">
+        <v>3161</v>
+      </c>
+      <c r="C1455" t="s" s="2">
+        <v>3162</v>
+      </c>
+      <c r="D1455" s="2"/>
+    </row>
+    <row r="1456">
+      <c r="A1456" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B1456" t="s" s="2">
+        <v>3163</v>
+      </c>
+      <c r="C1456" t="s" s="2">
+        <v>3164</v>
+      </c>
+      <c r="D1456" s="2"/>
+    </row>
+    <row r="1457">
+      <c r="A1457" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B1457" t="s" s="2">
+        <v>3165</v>
+      </c>
+      <c r="C1457" t="s" s="2">
+        <v>3166</v>
+      </c>
+      <c r="D1457" s="2"/>
+    </row>
+    <row r="1458">
+      <c r="A1458" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B1458" t="s" s="2">
+        <v>3167</v>
+      </c>
+      <c r="C1458" t="s" s="2">
+        <v>3168</v>
+      </c>
+      <c r="D1458" s="2"/>
+    </row>
+    <row r="1459">
+      <c r="A1459" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B1459" t="s" s="2">
+        <v>3169</v>
+      </c>
+      <c r="C1459" t="s" s="2">
+        <v>3170</v>
+      </c>
+      <c r="D1459" s="2"/>
+    </row>
+    <row r="1460">
+      <c r="A1460" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B1460" t="s" s="2">
+        <v>3171</v>
+      </c>
+      <c r="C1460" t="s" s="2">
+        <v>3172</v>
+      </c>
+      <c r="D1460" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ig/main/CodeSystem-TRE-R210-ActeSpecifique.xlsx
+++ b/ig/main/CodeSystem-TRE-R210-ActeSpecifique.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4661" uniqueCount="3173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4671" uniqueCount="3180">
   <si>
     <t>Property</t>
   </si>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-28T12:00:00+01:00</t>
+    <t>2024-07-26T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -85,7 +85,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Acte spécifique</t>
+    <t>Action menée par un ou plusieurs acteur(s) de santé dans le cadre d'une activité. Cet acte peut correspondre à une technique spécialisée ou traduire une expertise discriminante dans le parcours de santé.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -9533,6 +9533,27 @@
   </si>
   <si>
     <t>Pressothérapie</t>
+  </si>
+  <si>
+    <t>1461</t>
+  </si>
+  <si>
+    <t>Diagnostic par télé-AVC</t>
+  </si>
+  <si>
+    <t>Solution de télémédecine qui permet de requérir une expertise neuro-vasculaire aux établissements qui n'en disposent pas, en s'appuyant sur la possibilité de transmettre des images de qualité, et ainsi de réaliser un télédiagnostic, dans le but d'assurer des décisions thérapeutiques (par exemple, la thrombolyse) ou des prises en charges adaptées avec un bénéfice immédiat pour le patient.</t>
+  </si>
+  <si>
+    <t>1462</t>
+  </si>
+  <si>
+    <t>Unité neuro-vasculaire (UNV) de territoire</t>
+  </si>
+  <si>
+    <t>1463</t>
+  </si>
+  <si>
+    <t>Unité neuro-vasculaire (UNV) de recours</t>
   </si>
 </sst>
 </file>
@@ -9908,7 +9929,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D1460"/>
+  <dimension ref="A1:D1463"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -27900,6 +27921,44 @@
       </c>
       <c r="D1460" s="2"/>
     </row>
+    <row r="1461">
+      <c r="A1461" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B1461" t="s" s="2">
+        <v>3173</v>
+      </c>
+      <c r="C1461" t="s" s="2">
+        <v>3174</v>
+      </c>
+      <c r="D1461" t="s" s="2">
+        <v>3175</v>
+      </c>
+    </row>
+    <row r="1462">
+      <c r="A1462" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B1462" t="s" s="2">
+        <v>3176</v>
+      </c>
+      <c r="C1462" t="s" s="2">
+        <v>3177</v>
+      </c>
+      <c r="D1462" s="2"/>
+    </row>
+    <row r="1463">
+      <c r="A1463" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B1463" t="s" s="2">
+        <v>3178</v>
+      </c>
+      <c r="C1463" t="s" s="2">
+        <v>3179</v>
+      </c>
+      <c r="D1463" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ig/main/CodeSystem-TRE-R210-ActeSpecifique.xlsx
+++ b/ig/main/CodeSystem-TRE-R210-ActeSpecifique.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/main/CodeSystem-TRE-R210-ActeSpecifique.xlsx
+++ b/ig/main/CodeSystem-TRE-R210-ActeSpecifique.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4729" uniqueCount="3220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4732" uniqueCount="3222">
   <si>
     <t>Property</t>
   </si>
@@ -9514,13 +9514,13 @@
     <t>1455</t>
   </si>
   <si>
-    <t>Surveillance et administration de traitement hémophilique</t>
+    <t>Soins et surveillance d'administration de traitement hémophilique</t>
   </si>
   <si>
     <t>1456</t>
   </si>
   <si>
-    <t>Surveillance infirmière et remplissage de pompe à morphine</t>
+    <t>Soins et surveillance de remplissage de pompe à morphine</t>
   </si>
   <si>
     <t>1457</t>
@@ -9626,6 +9626,12 @@
   </si>
   <si>
     <t>Soins et surveillance des cathéters périnerveux</t>
+  </si>
+  <si>
+    <t>1474</t>
+  </si>
+  <si>
+    <t>Télésoin</t>
   </si>
   <si>
     <t>1475</t>
@@ -10049,7 +10055,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D1481"/>
+  <dimension ref="A1:D1482"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -28303,6 +28309,18 @@
       </c>
       <c r="D1481" s="2"/>
     </row>
+    <row r="1482">
+      <c r="A1482" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B1482" t="s" s="2">
+        <v>3220</v>
+      </c>
+      <c r="C1482" t="s" s="2">
+        <v>3221</v>
+      </c>
+      <c r="D1482" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ig/main/CodeSystem-TRE-R210-ActeSpecifique.xlsx
+++ b/ig/main/CodeSystem-TRE-R210-ActeSpecifique.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/main/CodeSystem-TRE-R210-ActeSpecifique.xlsx
+++ b/ig/main/CodeSystem-TRE-R210-ActeSpecifique.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4732" uniqueCount="3222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4746" uniqueCount="3230">
   <si>
     <t>Property</t>
   </si>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-27T12:00:00+01:00</t>
+    <t>2024-10-25T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4558,7 +4558,7 @@
     <t>0709</t>
   </si>
   <si>
-    <t>Entéro-IRM</t>
+    <t>Colo-IRM et entéro-IRM</t>
   </si>
   <si>
     <t>0710</t>
@@ -6253,7 +6253,7 @@
     <t>Visite à domicile</t>
   </si>
   <si>
-    <t>L'acte "visite à domicile" permet de caractériser la façon dont est réalisée une consultation par un médecin. Une consultation peut être réalisée en présentiel, en téléconsultation ou en visite à domicile. Intervention d'un professionnel de santé, au domicile d'un patient pour lui prodiguer des soins ou réaliser un suivi médical pour les patients ayant des difficultés à se déplacer, permettent d'assurer une continuité des soins dans un environnement familier pour le patient</t>
+    <t>Intervention d'un professionnel de santé au domicile d'un patient ou d'un usager pour assurer une continuité des soins et/ou de la prise en charge, de l'accompagnement</t>
   </si>
   <si>
     <t>0990</t>
@@ -7246,7 +7246,7 @@
     <t>1119</t>
   </si>
   <si>
-    <t>Chirurgie du défilé cervico-thoracique</t>
+    <t>Chirurgie du défilé cervico thoraco brachial</t>
   </si>
   <si>
     <t>Décompression vasculaire et neurologique de l'espace costo-claviculaire</t>
@@ -7477,7 +7477,7 @@
     <t>1151</t>
   </si>
   <si>
-    <t>Chirurgie oncologique de l'oesophage ou de la jonction gastro-oesophagienne</t>
+    <t>Chirurgie carcinologique de l'oesophage ou de la jonction gastro-oesophagienne</t>
   </si>
   <si>
     <t>Chirurgie qui consiste en l'ablation complète ou partielle de l'oesophage en fonction de la localisation de la tumeur et de son stade</t>
@@ -7570,9 +7570,6 @@
     <t>1166</t>
   </si>
   <si>
-    <t>Colo-IRM et entéro-IRM</t>
-  </si>
-  <si>
     <t>1167</t>
   </si>
   <si>
@@ -7696,9 +7693,6 @@
     <t>Echographie clinique ciblée</t>
   </si>
   <si>
-    <t>Technique d'imagerie par échographie de manière ciblée (en anglais "Point-of-Care Ultrasound" ou POCUS) pour répondre à des questions cliniques spécifiques et urgentes, plutôt que pour effectuer une évaluation complète comme le ferait un radiologue, elle se distingue par sa rapidité, sa précision pour des questions spécifiques, et son utilisation directement par les professionnels de santé impliqués dans les soins immédiats du patient</t>
-  </si>
-  <si>
     <t>1187</t>
   </si>
   <si>
@@ -8305,7 +8299,7 @@
     <t>1279</t>
   </si>
   <si>
-    <t>Télésurveillance des prothèses rythmiques</t>
+    <t>Télésurveillance médicale de l'arythmie cardiaque</t>
   </si>
   <si>
     <t>1280</t>
@@ -9571,13 +9565,13 @@
     <t>1464</t>
   </si>
   <si>
-    <t>Certificats médicaux pour le sport de haut niveau (SHN)</t>
+    <t>Délivrance de certificats médicaux pour le sport de haut niveau (SHN)</t>
   </si>
   <si>
     <t>1465</t>
   </si>
   <si>
-    <t>Certificats spécifiques pour les sportifs en situation de Handicap</t>
+    <t>Délivrance de certificats spécifiques pour les sportifs en situation de Handicap</t>
   </si>
   <si>
     <t>1466</t>
@@ -9680,6 +9674,36 @@
   </si>
   <si>
     <t>Cryothérapie compressive</t>
+  </si>
+  <si>
+    <t>1483</t>
+  </si>
+  <si>
+    <t>Télésurveillance médicale de l'insuffisance cardiaque</t>
+  </si>
+  <si>
+    <t>1484</t>
+  </si>
+  <si>
+    <t>Télésurveillance médicale de l'insuffisance rénale</t>
+  </si>
+  <si>
+    <t>1485</t>
+  </si>
+  <si>
+    <t>Télésurveillance médicale de l'insuffisance respiratoire</t>
+  </si>
+  <si>
+    <t>1486</t>
+  </si>
+  <si>
+    <t>Télésurveillance médicale du diabète</t>
+  </si>
+  <si>
+    <t>1487</t>
+  </si>
+  <si>
+    <t>Télésurveillance médicale en oncologie</t>
   </si>
 </sst>
 </file>
@@ -10055,7 +10079,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D1482"/>
+  <dimension ref="A1:D1487"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -24375,7 +24399,7 @@
         <v>2517</v>
       </c>
       <c r="C1167" t="s" s="2">
-        <v>2518</v>
+        <v>1514</v>
       </c>
       <c r="D1167" s="2"/>
     </row>
@@ -24384,13 +24408,13 @@
         <v>48</v>
       </c>
       <c r="B1168" t="s" s="2">
+        <v>2518</v>
+      </c>
+      <c r="C1168" t="s" s="2">
         <v>2519</v>
       </c>
-      <c r="C1168" t="s" s="2">
+      <c r="D1168" t="s" s="2">
         <v>2520</v>
-      </c>
-      <c r="D1168" t="s" s="2">
-        <v>2521</v>
       </c>
     </row>
     <row r="1169">
@@ -24398,10 +24422,10 @@
         <v>48</v>
       </c>
       <c r="B1169" t="s" s="2">
+        <v>2521</v>
+      </c>
+      <c r="C1169" t="s" s="2">
         <v>2522</v>
-      </c>
-      <c r="C1169" t="s" s="2">
-        <v>2523</v>
       </c>
       <c r="D1169" s="2"/>
     </row>
@@ -24410,10 +24434,10 @@
         <v>48</v>
       </c>
       <c r="B1170" t="s" s="2">
+        <v>2523</v>
+      </c>
+      <c r="C1170" t="s" s="2">
         <v>2524</v>
-      </c>
-      <c r="C1170" t="s" s="2">
-        <v>2525</v>
       </c>
       <c r="D1170" s="2"/>
     </row>
@@ -24422,10 +24446,10 @@
         <v>48</v>
       </c>
       <c r="B1171" t="s" s="2">
+        <v>2525</v>
+      </c>
+      <c r="C1171" t="s" s="2">
         <v>2526</v>
-      </c>
-      <c r="C1171" t="s" s="2">
-        <v>2527</v>
       </c>
       <c r="D1171" s="2"/>
     </row>
@@ -24434,10 +24458,10 @@
         <v>48</v>
       </c>
       <c r="B1172" t="s" s="2">
+        <v>2527</v>
+      </c>
+      <c r="C1172" t="s" s="2">
         <v>2528</v>
-      </c>
-      <c r="C1172" t="s" s="2">
-        <v>2529</v>
       </c>
       <c r="D1172" s="2"/>
     </row>
@@ -24446,10 +24470,10 @@
         <v>48</v>
       </c>
       <c r="B1173" t="s" s="2">
+        <v>2529</v>
+      </c>
+      <c r="C1173" t="s" s="2">
         <v>2530</v>
-      </c>
-      <c r="C1173" t="s" s="2">
-        <v>2531</v>
       </c>
       <c r="D1173" s="2"/>
     </row>
@@ -24458,10 +24482,10 @@
         <v>48</v>
       </c>
       <c r="B1174" t="s" s="2">
+        <v>2531</v>
+      </c>
+      <c r="C1174" t="s" s="2">
         <v>2532</v>
-      </c>
-      <c r="C1174" t="s" s="2">
-        <v>2533</v>
       </c>
       <c r="D1174" s="2"/>
     </row>
@@ -24470,10 +24494,10 @@
         <v>48</v>
       </c>
       <c r="B1175" t="s" s="2">
+        <v>2533</v>
+      </c>
+      <c r="C1175" t="s" s="2">
         <v>2534</v>
-      </c>
-      <c r="C1175" t="s" s="2">
-        <v>2535</v>
       </c>
       <c r="D1175" s="2"/>
     </row>
@@ -24482,10 +24506,10 @@
         <v>48</v>
       </c>
       <c r="B1176" t="s" s="2">
+        <v>2535</v>
+      </c>
+      <c r="C1176" t="s" s="2">
         <v>2536</v>
-      </c>
-      <c r="C1176" t="s" s="2">
-        <v>2537</v>
       </c>
       <c r="D1176" s="2"/>
     </row>
@@ -24494,10 +24518,10 @@
         <v>48</v>
       </c>
       <c r="B1177" t="s" s="2">
+        <v>2537</v>
+      </c>
+      <c r="C1177" t="s" s="2">
         <v>2538</v>
-      </c>
-      <c r="C1177" t="s" s="2">
-        <v>2539</v>
       </c>
       <c r="D1177" s="2"/>
     </row>
@@ -24506,10 +24530,10 @@
         <v>48</v>
       </c>
       <c r="B1178" t="s" s="2">
+        <v>2539</v>
+      </c>
+      <c r="C1178" t="s" s="2">
         <v>2540</v>
-      </c>
-      <c r="C1178" t="s" s="2">
-        <v>2541</v>
       </c>
       <c r="D1178" s="2"/>
     </row>
@@ -24518,10 +24542,10 @@
         <v>48</v>
       </c>
       <c r="B1179" t="s" s="2">
+        <v>2541</v>
+      </c>
+      <c r="C1179" t="s" s="2">
         <v>2542</v>
-      </c>
-      <c r="C1179" t="s" s="2">
-        <v>2543</v>
       </c>
       <c r="D1179" s="2"/>
     </row>
@@ -24530,10 +24554,10 @@
         <v>48</v>
       </c>
       <c r="B1180" t="s" s="2">
+        <v>2543</v>
+      </c>
+      <c r="C1180" t="s" s="2">
         <v>2544</v>
-      </c>
-      <c r="C1180" t="s" s="2">
-        <v>2545</v>
       </c>
       <c r="D1180" s="2"/>
     </row>
@@ -24542,10 +24566,10 @@
         <v>48</v>
       </c>
       <c r="B1181" t="s" s="2">
+        <v>2545</v>
+      </c>
+      <c r="C1181" t="s" s="2">
         <v>2546</v>
-      </c>
-      <c r="C1181" t="s" s="2">
-        <v>2547</v>
       </c>
       <c r="D1181" s="2"/>
     </row>
@@ -24554,13 +24578,13 @@
         <v>48</v>
       </c>
       <c r="B1182" t="s" s="2">
+        <v>2547</v>
+      </c>
+      <c r="C1182" t="s" s="2">
         <v>2548</v>
       </c>
-      <c r="C1182" t="s" s="2">
+      <c r="D1182" t="s" s="2">
         <v>2549</v>
-      </c>
-      <c r="D1182" t="s" s="2">
-        <v>2550</v>
       </c>
     </row>
     <row r="1183">
@@ -24568,10 +24592,10 @@
         <v>48</v>
       </c>
       <c r="B1183" t="s" s="2">
+        <v>2550</v>
+      </c>
+      <c r="C1183" t="s" s="2">
         <v>2551</v>
-      </c>
-      <c r="C1183" t="s" s="2">
-        <v>2552</v>
       </c>
       <c r="D1183" s="2"/>
     </row>
@@ -24580,10 +24604,10 @@
         <v>48</v>
       </c>
       <c r="B1184" t="s" s="2">
+        <v>2552</v>
+      </c>
+      <c r="C1184" t="s" s="2">
         <v>2553</v>
-      </c>
-      <c r="C1184" t="s" s="2">
-        <v>2554</v>
       </c>
       <c r="D1184" s="2"/>
     </row>
@@ -24592,10 +24616,10 @@
         <v>48</v>
       </c>
       <c r="B1185" t="s" s="2">
+        <v>2554</v>
+      </c>
+      <c r="C1185" t="s" s="2">
         <v>2555</v>
-      </c>
-      <c r="C1185" t="s" s="2">
-        <v>2556</v>
       </c>
       <c r="D1185" s="2"/>
     </row>
@@ -24604,7 +24628,7 @@
         <v>48</v>
       </c>
       <c r="B1186" t="s" s="2">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="C1186" t="s" s="2">
         <v>1968</v>
@@ -24616,27 +24640,25 @@
         <v>48</v>
       </c>
       <c r="B1187" t="s" s="2">
+        <v>2557</v>
+      </c>
+      <c r="C1187" t="s" s="2">
         <v>2558</v>
       </c>
-      <c r="C1187" t="s" s="2">
-        <v>2559</v>
-      </c>
-      <c r="D1187" t="s" s="2">
-        <v>2560</v>
-      </c>
+      <c r="D1187" s="2"/>
     </row>
     <row r="1188">
       <c r="A1188" t="s" s="2">
         <v>48</v>
       </c>
       <c r="B1188" t="s" s="2">
+        <v>2559</v>
+      </c>
+      <c r="C1188" t="s" s="2">
+        <v>2560</v>
+      </c>
+      <c r="D1188" t="s" s="2">
         <v>2561</v>
-      </c>
-      <c r="C1188" t="s" s="2">
-        <v>2562</v>
-      </c>
-      <c r="D1188" t="s" s="2">
-        <v>2563</v>
       </c>
     </row>
     <row r="1189">
@@ -24644,10 +24666,10 @@
         <v>48</v>
       </c>
       <c r="B1189" t="s" s="2">
-        <v>2564</v>
+        <v>2562</v>
       </c>
       <c r="C1189" t="s" s="2">
-        <v>2565</v>
+        <v>2563</v>
       </c>
       <c r="D1189" s="2"/>
     </row>
@@ -24656,10 +24678,10 @@
         <v>48</v>
       </c>
       <c r="B1190" t="s" s="2">
-        <v>2566</v>
+        <v>2564</v>
       </c>
       <c r="C1190" t="s" s="2">
-        <v>2567</v>
+        <v>2565</v>
       </c>
       <c r="D1190" s="2"/>
     </row>
@@ -24668,10 +24690,10 @@
         <v>48</v>
       </c>
       <c r="B1191" t="s" s="2">
-        <v>2568</v>
+        <v>2566</v>
       </c>
       <c r="C1191" t="s" s="2">
-        <v>2569</v>
+        <v>2567</v>
       </c>
       <c r="D1191" s="2"/>
     </row>
@@ -24680,10 +24702,10 @@
         <v>48</v>
       </c>
       <c r="B1192" t="s" s="2">
-        <v>2570</v>
+        <v>2568</v>
       </c>
       <c r="C1192" t="s" s="2">
-        <v>2571</v>
+        <v>2569</v>
       </c>
       <c r="D1192" s="2"/>
     </row>
@@ -24692,10 +24714,10 @@
         <v>48</v>
       </c>
       <c r="B1193" t="s" s="2">
-        <v>2572</v>
+        <v>2570</v>
       </c>
       <c r="C1193" t="s" s="2">
-        <v>2573</v>
+        <v>2571</v>
       </c>
       <c r="D1193" s="2"/>
     </row>
@@ -24704,10 +24726,10 @@
         <v>48</v>
       </c>
       <c r="B1194" t="s" s="2">
-        <v>2574</v>
+        <v>2572</v>
       </c>
       <c r="C1194" t="s" s="2">
-        <v>2575</v>
+        <v>2573</v>
       </c>
       <c r="D1194" s="2"/>
     </row>
@@ -24716,10 +24738,10 @@
         <v>48</v>
       </c>
       <c r="B1195" t="s" s="2">
-        <v>2576</v>
+        <v>2574</v>
       </c>
       <c r="C1195" t="s" s="2">
-        <v>2577</v>
+        <v>2575</v>
       </c>
       <c r="D1195" s="2"/>
     </row>
@@ -24728,10 +24750,10 @@
         <v>48</v>
       </c>
       <c r="B1196" t="s" s="2">
-        <v>2578</v>
+        <v>2576</v>
       </c>
       <c r="C1196" t="s" s="2">
-        <v>2579</v>
+        <v>2577</v>
       </c>
       <c r="D1196" s="2"/>
     </row>
@@ -24740,13 +24762,13 @@
         <v>48</v>
       </c>
       <c r="B1197" t="s" s="2">
+        <v>2578</v>
+      </c>
+      <c r="C1197" t="s" s="2">
+        <v>2579</v>
+      </c>
+      <c r="D1197" t="s" s="2">
         <v>2580</v>
-      </c>
-      <c r="C1197" t="s" s="2">
-        <v>2581</v>
-      </c>
-      <c r="D1197" t="s" s="2">
-        <v>2582</v>
       </c>
     </row>
     <row r="1198">
@@ -24754,13 +24776,13 @@
         <v>48</v>
       </c>
       <c r="B1198" t="s" s="2">
+        <v>2581</v>
+      </c>
+      <c r="C1198" t="s" s="2">
+        <v>2582</v>
+      </c>
+      <c r="D1198" t="s" s="2">
         <v>2583</v>
-      </c>
-      <c r="C1198" t="s" s="2">
-        <v>2584</v>
-      </c>
-      <c r="D1198" t="s" s="2">
-        <v>2585</v>
       </c>
     </row>
     <row r="1199">
@@ -24768,13 +24790,13 @@
         <v>48</v>
       </c>
       <c r="B1199" t="s" s="2">
-        <v>2586</v>
+        <v>2584</v>
       </c>
       <c r="C1199" t="s" s="2">
-        <v>2587</v>
+        <v>2585</v>
       </c>
       <c r="D1199" t="s" s="2">
-        <v>2585</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="1200">
@@ -24782,13 +24804,13 @@
         <v>48</v>
       </c>
       <c r="B1200" t="s" s="2">
+        <v>2586</v>
+      </c>
+      <c r="C1200" t="s" s="2">
+        <v>2587</v>
+      </c>
+      <c r="D1200" t="s" s="2">
         <v>2588</v>
-      </c>
-      <c r="C1200" t="s" s="2">
-        <v>2589</v>
-      </c>
-      <c r="D1200" t="s" s="2">
-        <v>2590</v>
       </c>
     </row>
     <row r="1201">
@@ -24796,10 +24818,10 @@
         <v>48</v>
       </c>
       <c r="B1201" t="s" s="2">
-        <v>2591</v>
+        <v>2589</v>
       </c>
       <c r="C1201" t="s" s="2">
-        <v>2592</v>
+        <v>2590</v>
       </c>
       <c r="D1201" s="2"/>
     </row>
@@ -24808,10 +24830,10 @@
         <v>48</v>
       </c>
       <c r="B1202" t="s" s="2">
-        <v>2593</v>
+        <v>2591</v>
       </c>
       <c r="C1202" t="s" s="2">
-        <v>2594</v>
+        <v>2592</v>
       </c>
       <c r="D1202" s="2"/>
     </row>
@@ -24820,10 +24842,10 @@
         <v>48</v>
       </c>
       <c r="B1203" t="s" s="2">
-        <v>2595</v>
+        <v>2593</v>
       </c>
       <c r="C1203" t="s" s="2">
-        <v>2596</v>
+        <v>2594</v>
       </c>
       <c r="D1203" s="2"/>
     </row>
@@ -24832,10 +24854,10 @@
         <v>48</v>
       </c>
       <c r="B1204" t="s" s="2">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="C1204" t="s" s="2">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="D1204" s="2"/>
     </row>
@@ -24844,10 +24866,10 @@
         <v>48</v>
       </c>
       <c r="B1205" t="s" s="2">
-        <v>2599</v>
+        <v>2597</v>
       </c>
       <c r="C1205" t="s" s="2">
-        <v>2600</v>
+        <v>2598</v>
       </c>
       <c r="D1205" s="2"/>
     </row>
@@ -24856,10 +24878,10 @@
         <v>48</v>
       </c>
       <c r="B1206" t="s" s="2">
-        <v>2601</v>
+        <v>2599</v>
       </c>
       <c r="C1206" t="s" s="2">
-        <v>2602</v>
+        <v>2600</v>
       </c>
       <c r="D1206" s="2"/>
     </row>
@@ -24868,10 +24890,10 @@
         <v>48</v>
       </c>
       <c r="B1207" t="s" s="2">
-        <v>2603</v>
+        <v>2601</v>
       </c>
       <c r="C1207" t="s" s="2">
-        <v>2604</v>
+        <v>2602</v>
       </c>
       <c r="D1207" s="2"/>
     </row>
@@ -24880,13 +24902,13 @@
         <v>48</v>
       </c>
       <c r="B1208" t="s" s="2">
+        <v>2603</v>
+      </c>
+      <c r="C1208" t="s" s="2">
+        <v>2604</v>
+      </c>
+      <c r="D1208" t="s" s="2">
         <v>2605</v>
-      </c>
-      <c r="C1208" t="s" s="2">
-        <v>2606</v>
-      </c>
-      <c r="D1208" t="s" s="2">
-        <v>2607</v>
       </c>
     </row>
     <row r="1209">
@@ -24894,10 +24916,10 @@
         <v>48</v>
       </c>
       <c r="B1209" t="s" s="2">
-        <v>2608</v>
+        <v>2606</v>
       </c>
       <c r="C1209" t="s" s="2">
-        <v>2609</v>
+        <v>2607</v>
       </c>
       <c r="D1209" s="2"/>
     </row>
@@ -24906,10 +24928,10 @@
         <v>48</v>
       </c>
       <c r="B1210" t="s" s="2">
-        <v>2610</v>
+        <v>2608</v>
       </c>
       <c r="C1210" t="s" s="2">
-        <v>2611</v>
+        <v>2609</v>
       </c>
       <c r="D1210" s="2"/>
     </row>
@@ -24918,10 +24940,10 @@
         <v>48</v>
       </c>
       <c r="B1211" t="s" s="2">
-        <v>2612</v>
+        <v>2610</v>
       </c>
       <c r="C1211" t="s" s="2">
-        <v>2613</v>
+        <v>2611</v>
       </c>
       <c r="D1211" s="2"/>
     </row>
@@ -24930,10 +24952,10 @@
         <v>48</v>
       </c>
       <c r="B1212" t="s" s="2">
-        <v>2614</v>
+        <v>2612</v>
       </c>
       <c r="C1212" t="s" s="2">
-        <v>2615</v>
+        <v>2613</v>
       </c>
       <c r="D1212" s="2"/>
     </row>
@@ -24942,10 +24964,10 @@
         <v>48</v>
       </c>
       <c r="B1213" t="s" s="2">
-        <v>2616</v>
+        <v>2614</v>
       </c>
       <c r="C1213" t="s" s="2">
-        <v>2617</v>
+        <v>2615</v>
       </c>
       <c r="D1213" s="2"/>
     </row>
@@ -24954,10 +24976,10 @@
         <v>48</v>
       </c>
       <c r="B1214" t="s" s="2">
-        <v>2618</v>
+        <v>2616</v>
       </c>
       <c r="C1214" t="s" s="2">
-        <v>2619</v>
+        <v>2617</v>
       </c>
       <c r="D1214" s="2"/>
     </row>
@@ -24966,13 +24988,13 @@
         <v>48</v>
       </c>
       <c r="B1215" t="s" s="2">
+        <v>2618</v>
+      </c>
+      <c r="C1215" t="s" s="2">
+        <v>2619</v>
+      </c>
+      <c r="D1215" t="s" s="2">
         <v>2620</v>
-      </c>
-      <c r="C1215" t="s" s="2">
-        <v>2621</v>
-      </c>
-      <c r="D1215" t="s" s="2">
-        <v>2622</v>
       </c>
     </row>
     <row r="1216">
@@ -24980,10 +25002,10 @@
         <v>48</v>
       </c>
       <c r="B1216" t="s" s="2">
-        <v>2623</v>
+        <v>2621</v>
       </c>
       <c r="C1216" t="s" s="2">
-        <v>2624</v>
+        <v>2622</v>
       </c>
       <c r="D1216" s="2"/>
     </row>
@@ -24992,10 +25014,10 @@
         <v>48</v>
       </c>
       <c r="B1217" t="s" s="2">
-        <v>2625</v>
+        <v>2623</v>
       </c>
       <c r="C1217" t="s" s="2">
-        <v>2626</v>
+        <v>2624</v>
       </c>
       <c r="D1217" s="2"/>
     </row>
@@ -25004,10 +25026,10 @@
         <v>48</v>
       </c>
       <c r="B1218" t="s" s="2">
-        <v>2627</v>
+        <v>2625</v>
       </c>
       <c r="C1218" t="s" s="2">
-        <v>2628</v>
+        <v>2626</v>
       </c>
       <c r="D1218" s="2"/>
     </row>
@@ -25016,10 +25038,10 @@
         <v>48</v>
       </c>
       <c r="B1219" t="s" s="2">
-        <v>2629</v>
+        <v>2627</v>
       </c>
       <c r="C1219" t="s" s="2">
-        <v>2630</v>
+        <v>2628</v>
       </c>
       <c r="D1219" s="2"/>
     </row>
@@ -25028,10 +25050,10 @@
         <v>48</v>
       </c>
       <c r="B1220" t="s" s="2">
-        <v>2631</v>
+        <v>2629</v>
       </c>
       <c r="C1220" t="s" s="2">
-        <v>2632</v>
+        <v>2630</v>
       </c>
       <c r="D1220" s="2"/>
     </row>
@@ -25040,10 +25062,10 @@
         <v>48</v>
       </c>
       <c r="B1221" t="s" s="2">
-        <v>2633</v>
+        <v>2631</v>
       </c>
       <c r="C1221" t="s" s="2">
-        <v>2634</v>
+        <v>2632</v>
       </c>
       <c r="D1221" s="2"/>
     </row>
@@ -25052,10 +25074,10 @@
         <v>48</v>
       </c>
       <c r="B1222" t="s" s="2">
-        <v>2635</v>
+        <v>2633</v>
       </c>
       <c r="C1222" t="s" s="2">
-        <v>2636</v>
+        <v>2634</v>
       </c>
       <c r="D1222" s="2"/>
     </row>
@@ -25064,10 +25086,10 @@
         <v>48</v>
       </c>
       <c r="B1223" t="s" s="2">
-        <v>2637</v>
+        <v>2635</v>
       </c>
       <c r="C1223" t="s" s="2">
-        <v>2638</v>
+        <v>2636</v>
       </c>
       <c r="D1223" s="2"/>
     </row>
@@ -25076,10 +25098,10 @@
         <v>48</v>
       </c>
       <c r="B1224" t="s" s="2">
-        <v>2639</v>
+        <v>2637</v>
       </c>
       <c r="C1224" t="s" s="2">
-        <v>2640</v>
+        <v>2638</v>
       </c>
       <c r="D1224" s="2"/>
     </row>
@@ -25088,10 +25110,10 @@
         <v>48</v>
       </c>
       <c r="B1225" t="s" s="2">
-        <v>2641</v>
+        <v>2639</v>
       </c>
       <c r="C1225" t="s" s="2">
-        <v>2642</v>
+        <v>2640</v>
       </c>
       <c r="D1225" s="2"/>
     </row>
@@ -25100,10 +25122,10 @@
         <v>48</v>
       </c>
       <c r="B1226" t="s" s="2">
-        <v>2643</v>
+        <v>2641</v>
       </c>
       <c r="C1226" t="s" s="2">
-        <v>2644</v>
+        <v>2642</v>
       </c>
       <c r="D1226" s="2"/>
     </row>
@@ -25112,10 +25134,10 @@
         <v>48</v>
       </c>
       <c r="B1227" t="s" s="2">
-        <v>2645</v>
+        <v>2643</v>
       </c>
       <c r="C1227" t="s" s="2">
-        <v>2646</v>
+        <v>2644</v>
       </c>
       <c r="D1227" s="2"/>
     </row>
@@ -25124,10 +25146,10 @@
         <v>48</v>
       </c>
       <c r="B1228" t="s" s="2">
-        <v>2647</v>
+        <v>2645</v>
       </c>
       <c r="C1228" t="s" s="2">
-        <v>2648</v>
+        <v>2646</v>
       </c>
       <c r="D1228" s="2"/>
     </row>
@@ -25136,10 +25158,10 @@
         <v>48</v>
       </c>
       <c r="B1229" t="s" s="2">
-        <v>2649</v>
+        <v>2647</v>
       </c>
       <c r="C1229" t="s" s="2">
-        <v>2650</v>
+        <v>2648</v>
       </c>
       <c r="D1229" s="2"/>
     </row>
@@ -25148,10 +25170,10 @@
         <v>48</v>
       </c>
       <c r="B1230" t="s" s="2">
-        <v>2651</v>
+        <v>2649</v>
       </c>
       <c r="C1230" t="s" s="2">
-        <v>2652</v>
+        <v>2650</v>
       </c>
       <c r="D1230" s="2"/>
     </row>
@@ -25160,10 +25182,10 @@
         <v>48</v>
       </c>
       <c r="B1231" t="s" s="2">
-        <v>2653</v>
+        <v>2651</v>
       </c>
       <c r="C1231" t="s" s="2">
-        <v>2654</v>
+        <v>2652</v>
       </c>
       <c r="D1231" s="2"/>
     </row>
@@ -25172,10 +25194,10 @@
         <v>48</v>
       </c>
       <c r="B1232" t="s" s="2">
-        <v>2655</v>
+        <v>2653</v>
       </c>
       <c r="C1232" t="s" s="2">
-        <v>2656</v>
+        <v>2654</v>
       </c>
       <c r="D1232" s="2"/>
     </row>
@@ -25184,10 +25206,10 @@
         <v>48</v>
       </c>
       <c r="B1233" t="s" s="2">
-        <v>2657</v>
+        <v>2655</v>
       </c>
       <c r="C1233" t="s" s="2">
-        <v>2658</v>
+        <v>2656</v>
       </c>
       <c r="D1233" s="2"/>
     </row>
@@ -25196,10 +25218,10 @@
         <v>48</v>
       </c>
       <c r="B1234" t="s" s="2">
-        <v>2659</v>
+        <v>2657</v>
       </c>
       <c r="C1234" t="s" s="2">
-        <v>2660</v>
+        <v>2658</v>
       </c>
       <c r="D1234" s="2"/>
     </row>
@@ -25208,10 +25230,10 @@
         <v>48</v>
       </c>
       <c r="B1235" t="s" s="2">
-        <v>2661</v>
+        <v>2659</v>
       </c>
       <c r="C1235" t="s" s="2">
-        <v>2662</v>
+        <v>2660</v>
       </c>
       <c r="D1235" s="2"/>
     </row>
@@ -25220,10 +25242,10 @@
         <v>48</v>
       </c>
       <c r="B1236" t="s" s="2">
-        <v>2663</v>
+        <v>2661</v>
       </c>
       <c r="C1236" t="s" s="2">
-        <v>2664</v>
+        <v>2662</v>
       </c>
       <c r="D1236" s="2"/>
     </row>
@@ -25232,10 +25254,10 @@
         <v>48</v>
       </c>
       <c r="B1237" t="s" s="2">
-        <v>2665</v>
+        <v>2663</v>
       </c>
       <c r="C1237" t="s" s="2">
-        <v>2666</v>
+        <v>2664</v>
       </c>
       <c r="D1237" s="2"/>
     </row>
@@ -25244,10 +25266,10 @@
         <v>48</v>
       </c>
       <c r="B1238" t="s" s="2">
-        <v>2667</v>
+        <v>2665</v>
       </c>
       <c r="C1238" t="s" s="2">
-        <v>2668</v>
+        <v>2666</v>
       </c>
       <c r="D1238" s="2"/>
     </row>
@@ -25256,10 +25278,10 @@
         <v>48</v>
       </c>
       <c r="B1239" t="s" s="2">
-        <v>2669</v>
+        <v>2667</v>
       </c>
       <c r="C1239" t="s" s="2">
-        <v>2670</v>
+        <v>2668</v>
       </c>
       <c r="D1239" s="2"/>
     </row>
@@ -25268,10 +25290,10 @@
         <v>48</v>
       </c>
       <c r="B1240" t="s" s="2">
-        <v>2671</v>
+        <v>2669</v>
       </c>
       <c r="C1240" t="s" s="2">
-        <v>2672</v>
+        <v>2670</v>
       </c>
       <c r="D1240" s="2"/>
     </row>
@@ -25280,10 +25302,10 @@
         <v>48</v>
       </c>
       <c r="B1241" t="s" s="2">
-        <v>2673</v>
+        <v>2671</v>
       </c>
       <c r="C1241" t="s" s="2">
-        <v>2674</v>
+        <v>2672</v>
       </c>
       <c r="D1241" s="2"/>
     </row>
@@ -25292,10 +25314,10 @@
         <v>48</v>
       </c>
       <c r="B1242" t="s" s="2">
-        <v>2675</v>
+        <v>2673</v>
       </c>
       <c r="C1242" t="s" s="2">
-        <v>2676</v>
+        <v>2674</v>
       </c>
       <c r="D1242" s="2"/>
     </row>
@@ -25304,10 +25326,10 @@
         <v>48</v>
       </c>
       <c r="B1243" t="s" s="2">
-        <v>2677</v>
+        <v>2675</v>
       </c>
       <c r="C1243" t="s" s="2">
-        <v>2678</v>
+        <v>2676</v>
       </c>
       <c r="D1243" s="2"/>
     </row>
@@ -25316,13 +25338,13 @@
         <v>48</v>
       </c>
       <c r="B1244" t="s" s="2">
+        <v>2677</v>
+      </c>
+      <c r="C1244" t="s" s="2">
+        <v>2678</v>
+      </c>
+      <c r="D1244" t="s" s="2">
         <v>2679</v>
-      </c>
-      <c r="C1244" t="s" s="2">
-        <v>2680</v>
-      </c>
-      <c r="D1244" t="s" s="2">
-        <v>2681</v>
       </c>
     </row>
     <row r="1245">
@@ -25330,13 +25352,13 @@
         <v>48</v>
       </c>
       <c r="B1245" t="s" s="2">
+        <v>2680</v>
+      </c>
+      <c r="C1245" t="s" s="2">
+        <v>2681</v>
+      </c>
+      <c r="D1245" t="s" s="2">
         <v>2682</v>
-      </c>
-      <c r="C1245" t="s" s="2">
-        <v>2683</v>
-      </c>
-      <c r="D1245" t="s" s="2">
-        <v>2684</v>
       </c>
     </row>
     <row r="1246">
@@ -25344,10 +25366,10 @@
         <v>48</v>
       </c>
       <c r="B1246" t="s" s="2">
-        <v>2685</v>
+        <v>2683</v>
       </c>
       <c r="C1246" t="s" s="2">
-        <v>2686</v>
+        <v>2684</v>
       </c>
       <c r="D1246" s="2"/>
     </row>
@@ -25356,13 +25378,13 @@
         <v>48</v>
       </c>
       <c r="B1247" t="s" s="2">
+        <v>2685</v>
+      </c>
+      <c r="C1247" t="s" s="2">
+        <v>2686</v>
+      </c>
+      <c r="D1247" t="s" s="2">
         <v>2687</v>
-      </c>
-      <c r="C1247" t="s" s="2">
-        <v>2688</v>
-      </c>
-      <c r="D1247" t="s" s="2">
-        <v>2689</v>
       </c>
     </row>
     <row r="1248">
@@ -25370,13 +25392,13 @@
         <v>48</v>
       </c>
       <c r="B1248" t="s" s="2">
+        <v>2688</v>
+      </c>
+      <c r="C1248" t="s" s="2">
+        <v>2689</v>
+      </c>
+      <c r="D1248" t="s" s="2">
         <v>2690</v>
-      </c>
-      <c r="C1248" t="s" s="2">
-        <v>2691</v>
-      </c>
-      <c r="D1248" t="s" s="2">
-        <v>2692</v>
       </c>
     </row>
     <row r="1249">
@@ -25384,13 +25406,13 @@
         <v>48</v>
       </c>
       <c r="B1249" t="s" s="2">
+        <v>2691</v>
+      </c>
+      <c r="C1249" t="s" s="2">
+        <v>2692</v>
+      </c>
+      <c r="D1249" t="s" s="2">
         <v>2693</v>
-      </c>
-      <c r="C1249" t="s" s="2">
-        <v>2694</v>
-      </c>
-      <c r="D1249" t="s" s="2">
-        <v>2695</v>
       </c>
     </row>
     <row r="1250">
@@ -25398,10 +25420,10 @@
         <v>48</v>
       </c>
       <c r="B1250" t="s" s="2">
-        <v>2696</v>
+        <v>2694</v>
       </c>
       <c r="C1250" t="s" s="2">
-        <v>2697</v>
+        <v>2695</v>
       </c>
       <c r="D1250" s="2"/>
     </row>
@@ -25410,10 +25432,10 @@
         <v>48</v>
       </c>
       <c r="B1251" t="s" s="2">
-        <v>2698</v>
+        <v>2696</v>
       </c>
       <c r="C1251" t="s" s="2">
-        <v>2699</v>
+        <v>2697</v>
       </c>
       <c r="D1251" s="2"/>
     </row>
@@ -25422,10 +25444,10 @@
         <v>48</v>
       </c>
       <c r="B1252" t="s" s="2">
-        <v>2700</v>
+        <v>2698</v>
       </c>
       <c r="C1252" t="s" s="2">
-        <v>2701</v>
+        <v>2699</v>
       </c>
       <c r="D1252" s="2"/>
     </row>
@@ -25434,10 +25456,10 @@
         <v>48</v>
       </c>
       <c r="B1253" t="s" s="2">
-        <v>2702</v>
+        <v>2700</v>
       </c>
       <c r="C1253" t="s" s="2">
-        <v>2703</v>
+        <v>2701</v>
       </c>
       <c r="D1253" s="2"/>
     </row>
@@ -25446,10 +25468,10 @@
         <v>48</v>
       </c>
       <c r="B1254" t="s" s="2">
-        <v>2704</v>
+        <v>2702</v>
       </c>
       <c r="C1254" t="s" s="2">
-        <v>2705</v>
+        <v>2703</v>
       </c>
       <c r="D1254" s="2"/>
     </row>
@@ -25458,10 +25480,10 @@
         <v>48</v>
       </c>
       <c r="B1255" t="s" s="2">
-        <v>2706</v>
+        <v>2704</v>
       </c>
       <c r="C1255" t="s" s="2">
-        <v>2707</v>
+        <v>2705</v>
       </c>
       <c r="D1255" s="2"/>
     </row>
@@ -25470,10 +25492,10 @@
         <v>48</v>
       </c>
       <c r="B1256" t="s" s="2">
-        <v>2708</v>
+        <v>2706</v>
       </c>
       <c r="C1256" t="s" s="2">
-        <v>2709</v>
+        <v>2707</v>
       </c>
       <c r="D1256" s="2"/>
     </row>
@@ -25482,10 +25504,10 @@
         <v>48</v>
       </c>
       <c r="B1257" t="s" s="2">
-        <v>2710</v>
+        <v>2708</v>
       </c>
       <c r="C1257" t="s" s="2">
-        <v>2711</v>
+        <v>2709</v>
       </c>
       <c r="D1257" s="2"/>
     </row>
@@ -25494,10 +25516,10 @@
         <v>48</v>
       </c>
       <c r="B1258" t="s" s="2">
-        <v>2712</v>
+        <v>2710</v>
       </c>
       <c r="C1258" t="s" s="2">
-        <v>2713</v>
+        <v>2711</v>
       </c>
       <c r="D1258" s="2"/>
     </row>
@@ -25506,10 +25528,10 @@
         <v>48</v>
       </c>
       <c r="B1259" t="s" s="2">
-        <v>2714</v>
+        <v>2712</v>
       </c>
       <c r="C1259" t="s" s="2">
-        <v>2715</v>
+        <v>2713</v>
       </c>
       <c r="D1259" s="2"/>
     </row>
@@ -25518,10 +25540,10 @@
         <v>48</v>
       </c>
       <c r="B1260" t="s" s="2">
-        <v>2716</v>
+        <v>2714</v>
       </c>
       <c r="C1260" t="s" s="2">
-        <v>2717</v>
+        <v>2715</v>
       </c>
       <c r="D1260" s="2"/>
     </row>
@@ -25530,10 +25552,10 @@
         <v>48</v>
       </c>
       <c r="B1261" t="s" s="2">
-        <v>2718</v>
+        <v>2716</v>
       </c>
       <c r="C1261" t="s" s="2">
-        <v>2719</v>
+        <v>2717</v>
       </c>
       <c r="D1261" s="2"/>
     </row>
@@ -25542,10 +25564,10 @@
         <v>48</v>
       </c>
       <c r="B1262" t="s" s="2">
-        <v>2720</v>
+        <v>2718</v>
       </c>
       <c r="C1262" t="s" s="2">
-        <v>2721</v>
+        <v>2719</v>
       </c>
       <c r="D1262" s="2"/>
     </row>
@@ -25554,10 +25576,10 @@
         <v>48</v>
       </c>
       <c r="B1263" t="s" s="2">
-        <v>2722</v>
+        <v>2720</v>
       </c>
       <c r="C1263" t="s" s="2">
-        <v>2723</v>
+        <v>2721</v>
       </c>
       <c r="D1263" s="2"/>
     </row>
@@ -25566,10 +25588,10 @@
         <v>48</v>
       </c>
       <c r="B1264" t="s" s="2">
-        <v>2724</v>
+        <v>2722</v>
       </c>
       <c r="C1264" t="s" s="2">
-        <v>2725</v>
+        <v>2723</v>
       </c>
       <c r="D1264" s="2"/>
     </row>
@@ -25578,10 +25600,10 @@
         <v>48</v>
       </c>
       <c r="B1265" t="s" s="2">
-        <v>2726</v>
+        <v>2724</v>
       </c>
       <c r="C1265" t="s" s="2">
-        <v>2727</v>
+        <v>2725</v>
       </c>
       <c r="D1265" s="2"/>
     </row>
@@ -25590,13 +25612,13 @@
         <v>48</v>
       </c>
       <c r="B1266" t="s" s="2">
+        <v>2726</v>
+      </c>
+      <c r="C1266" t="s" s="2">
+        <v>2727</v>
+      </c>
+      <c r="D1266" t="s" s="2">
         <v>2728</v>
-      </c>
-      <c r="C1266" t="s" s="2">
-        <v>2729</v>
-      </c>
-      <c r="D1266" t="s" s="2">
-        <v>2730</v>
       </c>
     </row>
     <row r="1267">
@@ -25604,13 +25626,13 @@
         <v>48</v>
       </c>
       <c r="B1267" t="s" s="2">
+        <v>2729</v>
+      </c>
+      <c r="C1267" t="s" s="2">
+        <v>2730</v>
+      </c>
+      <c r="D1267" t="s" s="2">
         <v>2731</v>
-      </c>
-      <c r="C1267" t="s" s="2">
-        <v>2732</v>
-      </c>
-      <c r="D1267" t="s" s="2">
-        <v>2733</v>
       </c>
     </row>
     <row r="1268">
@@ -25618,13 +25640,13 @@
         <v>48</v>
       </c>
       <c r="B1268" t="s" s="2">
+        <v>2732</v>
+      </c>
+      <c r="C1268" t="s" s="2">
+        <v>2733</v>
+      </c>
+      <c r="D1268" t="s" s="2">
         <v>2734</v>
-      </c>
-      <c r="C1268" t="s" s="2">
-        <v>2735</v>
-      </c>
-      <c r="D1268" t="s" s="2">
-        <v>2736</v>
       </c>
     </row>
     <row r="1269">
@@ -25632,13 +25654,13 @@
         <v>48</v>
       </c>
       <c r="B1269" t="s" s="2">
+        <v>2735</v>
+      </c>
+      <c r="C1269" t="s" s="2">
+        <v>2736</v>
+      </c>
+      <c r="D1269" t="s" s="2">
         <v>2737</v>
-      </c>
-      <c r="C1269" t="s" s="2">
-        <v>2738</v>
-      </c>
-      <c r="D1269" t="s" s="2">
-        <v>2739</v>
       </c>
     </row>
     <row r="1270">
@@ -25646,13 +25668,13 @@
         <v>48</v>
       </c>
       <c r="B1270" t="s" s="2">
+        <v>2738</v>
+      </c>
+      <c r="C1270" t="s" s="2">
+        <v>2739</v>
+      </c>
+      <c r="D1270" t="s" s="2">
         <v>2740</v>
-      </c>
-      <c r="C1270" t="s" s="2">
-        <v>2741</v>
-      </c>
-      <c r="D1270" t="s" s="2">
-        <v>2742</v>
       </c>
     </row>
     <row r="1271">
@@ -25660,10 +25682,10 @@
         <v>48</v>
       </c>
       <c r="B1271" t="s" s="2">
-        <v>2743</v>
+        <v>2741</v>
       </c>
       <c r="C1271" t="s" s="2">
-        <v>2744</v>
+        <v>2742</v>
       </c>
       <c r="D1271" s="2"/>
     </row>
@@ -25672,10 +25694,10 @@
         <v>48</v>
       </c>
       <c r="B1272" t="s" s="2">
-        <v>2745</v>
+        <v>2743</v>
       </c>
       <c r="C1272" t="s" s="2">
-        <v>2746</v>
+        <v>2744</v>
       </c>
       <c r="D1272" s="2"/>
     </row>
@@ -25684,10 +25706,10 @@
         <v>48</v>
       </c>
       <c r="B1273" t="s" s="2">
-        <v>2747</v>
+        <v>2745</v>
       </c>
       <c r="C1273" t="s" s="2">
-        <v>2748</v>
+        <v>2746</v>
       </c>
       <c r="D1273" s="2"/>
     </row>
@@ -25696,10 +25718,10 @@
         <v>48</v>
       </c>
       <c r="B1274" t="s" s="2">
-        <v>2749</v>
+        <v>2747</v>
       </c>
       <c r="C1274" t="s" s="2">
-        <v>2750</v>
+        <v>2748</v>
       </c>
       <c r="D1274" s="2"/>
     </row>
@@ -25708,10 +25730,10 @@
         <v>48</v>
       </c>
       <c r="B1275" t="s" s="2">
-        <v>2751</v>
+        <v>2749</v>
       </c>
       <c r="C1275" t="s" s="2">
-        <v>2752</v>
+        <v>2750</v>
       </c>
       <c r="D1275" s="2"/>
     </row>
@@ -25720,13 +25742,13 @@
         <v>48</v>
       </c>
       <c r="B1276" t="s" s="2">
+        <v>2751</v>
+      </c>
+      <c r="C1276" t="s" s="2">
+        <v>2752</v>
+      </c>
+      <c r="D1276" t="s" s="2">
         <v>2753</v>
-      </c>
-      <c r="C1276" t="s" s="2">
-        <v>2754</v>
-      </c>
-      <c r="D1276" t="s" s="2">
-        <v>2755</v>
       </c>
     </row>
     <row r="1277">
@@ -25734,10 +25756,10 @@
         <v>48</v>
       </c>
       <c r="B1277" t="s" s="2">
-        <v>2756</v>
+        <v>2754</v>
       </c>
       <c r="C1277" t="s" s="2">
-        <v>2757</v>
+        <v>2755</v>
       </c>
       <c r="D1277" s="2"/>
     </row>
@@ -25746,10 +25768,10 @@
         <v>48</v>
       </c>
       <c r="B1278" t="s" s="2">
-        <v>2758</v>
+        <v>2756</v>
       </c>
       <c r="C1278" t="s" s="2">
-        <v>2759</v>
+        <v>2757</v>
       </c>
       <c r="D1278" s="2"/>
     </row>
@@ -25758,10 +25780,10 @@
         <v>48</v>
       </c>
       <c r="B1279" t="s" s="2">
-        <v>2760</v>
+        <v>2758</v>
       </c>
       <c r="C1279" t="s" s="2">
-        <v>2761</v>
+        <v>2759</v>
       </c>
       <c r="D1279" s="2"/>
     </row>
@@ -25770,10 +25792,10 @@
         <v>48</v>
       </c>
       <c r="B1280" t="s" s="2">
-        <v>2762</v>
+        <v>2760</v>
       </c>
       <c r="C1280" t="s" s="2">
-        <v>2763</v>
+        <v>2761</v>
       </c>
       <c r="D1280" s="2"/>
     </row>
@@ -25782,13 +25804,13 @@
         <v>48</v>
       </c>
       <c r="B1281" t="s" s="2">
+        <v>2762</v>
+      </c>
+      <c r="C1281" t="s" s="2">
+        <v>2763</v>
+      </c>
+      <c r="D1281" t="s" s="2">
         <v>2764</v>
-      </c>
-      <c r="C1281" t="s" s="2">
-        <v>2765</v>
-      </c>
-      <c r="D1281" t="s" s="2">
-        <v>2766</v>
       </c>
     </row>
     <row r="1282">
@@ -25796,13 +25818,13 @@
         <v>48</v>
       </c>
       <c r="B1282" t="s" s="2">
+        <v>2765</v>
+      </c>
+      <c r="C1282" t="s" s="2">
+        <v>2766</v>
+      </c>
+      <c r="D1282" t="s" s="2">
         <v>2767</v>
-      </c>
-      <c r="C1282" t="s" s="2">
-        <v>2768</v>
-      </c>
-      <c r="D1282" t="s" s="2">
-        <v>2769</v>
       </c>
     </row>
     <row r="1283">
@@ -25810,13 +25832,13 @@
         <v>48</v>
       </c>
       <c r="B1283" t="s" s="2">
+        <v>2768</v>
+      </c>
+      <c r="C1283" t="s" s="2">
+        <v>2769</v>
+      </c>
+      <c r="D1283" t="s" s="2">
         <v>2770</v>
-      </c>
-      <c r="C1283" t="s" s="2">
-        <v>2771</v>
-      </c>
-      <c r="D1283" t="s" s="2">
-        <v>2772</v>
       </c>
     </row>
     <row r="1284">
@@ -25824,13 +25846,13 @@
         <v>48</v>
       </c>
       <c r="B1284" t="s" s="2">
+        <v>2771</v>
+      </c>
+      <c r="C1284" t="s" s="2">
+        <v>2772</v>
+      </c>
+      <c r="D1284" t="s" s="2">
         <v>2773</v>
-      </c>
-      <c r="C1284" t="s" s="2">
-        <v>2774</v>
-      </c>
-      <c r="D1284" t="s" s="2">
-        <v>2775</v>
       </c>
     </row>
     <row r="1285">
@@ -25838,13 +25860,13 @@
         <v>48</v>
       </c>
       <c r="B1285" t="s" s="2">
+        <v>2774</v>
+      </c>
+      <c r="C1285" t="s" s="2">
+        <v>2775</v>
+      </c>
+      <c r="D1285" t="s" s="2">
         <v>2776</v>
-      </c>
-      <c r="C1285" t="s" s="2">
-        <v>2777</v>
-      </c>
-      <c r="D1285" t="s" s="2">
-        <v>2778</v>
       </c>
     </row>
     <row r="1286">
@@ -25852,13 +25874,13 @@
         <v>48</v>
       </c>
       <c r="B1286" t="s" s="2">
+        <v>2777</v>
+      </c>
+      <c r="C1286" t="s" s="2">
+        <v>2778</v>
+      </c>
+      <c r="D1286" t="s" s="2">
         <v>2779</v>
-      </c>
-      <c r="C1286" t="s" s="2">
-        <v>2780</v>
-      </c>
-      <c r="D1286" t="s" s="2">
-        <v>2781</v>
       </c>
     </row>
     <row r="1287">
@@ -25866,13 +25888,13 @@
         <v>48</v>
       </c>
       <c r="B1287" t="s" s="2">
+        <v>2780</v>
+      </c>
+      <c r="C1287" t="s" s="2">
+        <v>2781</v>
+      </c>
+      <c r="D1287" t="s" s="2">
         <v>2782</v>
-      </c>
-      <c r="C1287" t="s" s="2">
-        <v>2783</v>
-      </c>
-      <c r="D1287" t="s" s="2">
-        <v>2784</v>
       </c>
     </row>
     <row r="1288">
@@ -25880,13 +25902,13 @@
         <v>48</v>
       </c>
       <c r="B1288" t="s" s="2">
+        <v>2783</v>
+      </c>
+      <c r="C1288" t="s" s="2">
+        <v>2784</v>
+      </c>
+      <c r="D1288" t="s" s="2">
         <v>2785</v>
-      </c>
-      <c r="C1288" t="s" s="2">
-        <v>2786</v>
-      </c>
-      <c r="D1288" t="s" s="2">
-        <v>2787</v>
       </c>
     </row>
     <row r="1289">
@@ -25894,13 +25916,13 @@
         <v>48</v>
       </c>
       <c r="B1289" t="s" s="2">
+        <v>2786</v>
+      </c>
+      <c r="C1289" t="s" s="2">
+        <v>2787</v>
+      </c>
+      <c r="D1289" t="s" s="2">
         <v>2788</v>
-      </c>
-      <c r="C1289" t="s" s="2">
-        <v>2789</v>
-      </c>
-      <c r="D1289" t="s" s="2">
-        <v>2790</v>
       </c>
     </row>
     <row r="1290">
@@ -25908,13 +25930,13 @@
         <v>48</v>
       </c>
       <c r="B1290" t="s" s="2">
+        <v>2789</v>
+      </c>
+      <c r="C1290" t="s" s="2">
+        <v>2790</v>
+      </c>
+      <c r="D1290" t="s" s="2">
         <v>2791</v>
-      </c>
-      <c r="C1290" t="s" s="2">
-        <v>2792</v>
-      </c>
-      <c r="D1290" t="s" s="2">
-        <v>2793</v>
       </c>
     </row>
     <row r="1291">
@@ -25922,13 +25944,13 @@
         <v>48</v>
       </c>
       <c r="B1291" t="s" s="2">
+        <v>2792</v>
+      </c>
+      <c r="C1291" t="s" s="2">
+        <v>2793</v>
+      </c>
+      <c r="D1291" t="s" s="2">
         <v>2794</v>
-      </c>
-      <c r="C1291" t="s" s="2">
-        <v>2795</v>
-      </c>
-      <c r="D1291" t="s" s="2">
-        <v>2796</v>
       </c>
     </row>
     <row r="1292">
@@ -25936,13 +25958,13 @@
         <v>48</v>
       </c>
       <c r="B1292" t="s" s="2">
+        <v>2795</v>
+      </c>
+      <c r="C1292" t="s" s="2">
+        <v>2796</v>
+      </c>
+      <c r="D1292" t="s" s="2">
         <v>2797</v>
-      </c>
-      <c r="C1292" t="s" s="2">
-        <v>2798</v>
-      </c>
-      <c r="D1292" t="s" s="2">
-        <v>2799</v>
       </c>
     </row>
     <row r="1293">
@@ -25950,13 +25972,13 @@
         <v>48</v>
       </c>
       <c r="B1293" t="s" s="2">
+        <v>2798</v>
+      </c>
+      <c r="C1293" t="s" s="2">
+        <v>2799</v>
+      </c>
+      <c r="D1293" t="s" s="2">
         <v>2800</v>
-      </c>
-      <c r="C1293" t="s" s="2">
-        <v>2801</v>
-      </c>
-      <c r="D1293" t="s" s="2">
-        <v>2802</v>
       </c>
     </row>
     <row r="1294">
@@ -25964,13 +25986,13 @@
         <v>48</v>
       </c>
       <c r="B1294" t="s" s="2">
+        <v>2801</v>
+      </c>
+      <c r="C1294" t="s" s="2">
+        <v>2802</v>
+      </c>
+      <c r="D1294" t="s" s="2">
         <v>2803</v>
-      </c>
-      <c r="C1294" t="s" s="2">
-        <v>2804</v>
-      </c>
-      <c r="D1294" t="s" s="2">
-        <v>2805</v>
       </c>
     </row>
     <row r="1295">
@@ -25978,13 +26000,13 @@
         <v>48</v>
       </c>
       <c r="B1295" t="s" s="2">
+        <v>2804</v>
+      </c>
+      <c r="C1295" t="s" s="2">
+        <v>2805</v>
+      </c>
+      <c r="D1295" t="s" s="2">
         <v>2806</v>
-      </c>
-      <c r="C1295" t="s" s="2">
-        <v>2807</v>
-      </c>
-      <c r="D1295" t="s" s="2">
-        <v>2808</v>
       </c>
     </row>
     <row r="1296">
@@ -25992,13 +26014,13 @@
         <v>48</v>
       </c>
       <c r="B1296" t="s" s="2">
+        <v>2807</v>
+      </c>
+      <c r="C1296" t="s" s="2">
+        <v>2808</v>
+      </c>
+      <c r="D1296" t="s" s="2">
         <v>2809</v>
-      </c>
-      <c r="C1296" t="s" s="2">
-        <v>2810</v>
-      </c>
-      <c r="D1296" t="s" s="2">
-        <v>2811</v>
       </c>
     </row>
     <row r="1297">
@@ -26006,13 +26028,13 @@
         <v>48</v>
       </c>
       <c r="B1297" t="s" s="2">
+        <v>2810</v>
+      </c>
+      <c r="C1297" t="s" s="2">
+        <v>2811</v>
+      </c>
+      <c r="D1297" t="s" s="2">
         <v>2812</v>
-      </c>
-      <c r="C1297" t="s" s="2">
-        <v>2813</v>
-      </c>
-      <c r="D1297" t="s" s="2">
-        <v>2814</v>
       </c>
     </row>
     <row r="1298">
@@ -26020,13 +26042,13 @@
         <v>48</v>
       </c>
       <c r="B1298" t="s" s="2">
+        <v>2813</v>
+      </c>
+      <c r="C1298" t="s" s="2">
+        <v>2814</v>
+      </c>
+      <c r="D1298" t="s" s="2">
         <v>2815</v>
-      </c>
-      <c r="C1298" t="s" s="2">
-        <v>2816</v>
-      </c>
-      <c r="D1298" t="s" s="2">
-        <v>2817</v>
       </c>
     </row>
     <row r="1299">
@@ -26034,13 +26056,13 @@
         <v>48</v>
       </c>
       <c r="B1299" t="s" s="2">
+        <v>2816</v>
+      </c>
+      <c r="C1299" t="s" s="2">
+        <v>2817</v>
+      </c>
+      <c r="D1299" t="s" s="2">
         <v>2818</v>
-      </c>
-      <c r="C1299" t="s" s="2">
-        <v>2819</v>
-      </c>
-      <c r="D1299" t="s" s="2">
-        <v>2820</v>
       </c>
     </row>
     <row r="1300">
@@ -26048,13 +26070,13 @@
         <v>48</v>
       </c>
       <c r="B1300" t="s" s="2">
+        <v>2819</v>
+      </c>
+      <c r="C1300" t="s" s="2">
+        <v>2820</v>
+      </c>
+      <c r="D1300" t="s" s="2">
         <v>2821</v>
-      </c>
-      <c r="C1300" t="s" s="2">
-        <v>2822</v>
-      </c>
-      <c r="D1300" t="s" s="2">
-        <v>2823</v>
       </c>
     </row>
     <row r="1301">
@@ -26062,10 +26084,10 @@
         <v>48</v>
       </c>
       <c r="B1301" t="s" s="2">
-        <v>2824</v>
+        <v>2822</v>
       </c>
       <c r="C1301" t="s" s="2">
-        <v>2587</v>
+        <v>2585</v>
       </c>
       <c r="D1301" s="2"/>
     </row>
@@ -26074,13 +26096,13 @@
         <v>48</v>
       </c>
       <c r="B1302" t="s" s="2">
+        <v>2823</v>
+      </c>
+      <c r="C1302" t="s" s="2">
+        <v>2824</v>
+      </c>
+      <c r="D1302" t="s" s="2">
         <v>2825</v>
-      </c>
-      <c r="C1302" t="s" s="2">
-        <v>2826</v>
-      </c>
-      <c r="D1302" t="s" s="2">
-        <v>2827</v>
       </c>
     </row>
     <row r="1303">
@@ -26088,13 +26110,13 @@
         <v>48</v>
       </c>
       <c r="B1303" t="s" s="2">
+        <v>2826</v>
+      </c>
+      <c r="C1303" t="s" s="2">
+        <v>2827</v>
+      </c>
+      <c r="D1303" t="s" s="2">
         <v>2828</v>
-      </c>
-      <c r="C1303" t="s" s="2">
-        <v>2829</v>
-      </c>
-      <c r="D1303" t="s" s="2">
-        <v>2830</v>
       </c>
     </row>
     <row r="1304">
@@ -26102,13 +26124,13 @@
         <v>48</v>
       </c>
       <c r="B1304" t="s" s="2">
+        <v>2829</v>
+      </c>
+      <c r="C1304" t="s" s="2">
+        <v>2830</v>
+      </c>
+      <c r="D1304" t="s" s="2">
         <v>2831</v>
-      </c>
-      <c r="C1304" t="s" s="2">
-        <v>2832</v>
-      </c>
-      <c r="D1304" t="s" s="2">
-        <v>2833</v>
       </c>
     </row>
     <row r="1305">
@@ -26116,10 +26138,10 @@
         <v>48</v>
       </c>
       <c r="B1305" t="s" s="2">
-        <v>2834</v>
+        <v>2832</v>
       </c>
       <c r="C1305" t="s" s="2">
-        <v>2835</v>
+        <v>2833</v>
       </c>
       <c r="D1305" s="2"/>
     </row>
@@ -26128,10 +26150,10 @@
         <v>48</v>
       </c>
       <c r="B1306" t="s" s="2">
-        <v>2836</v>
+        <v>2834</v>
       </c>
       <c r="C1306" t="s" s="2">
-        <v>2837</v>
+        <v>2835</v>
       </c>
       <c r="D1306" s="2"/>
     </row>
@@ -26140,10 +26162,10 @@
         <v>48</v>
       </c>
       <c r="B1307" t="s" s="2">
-        <v>2838</v>
+        <v>2836</v>
       </c>
       <c r="C1307" t="s" s="2">
-        <v>2839</v>
+        <v>2837</v>
       </c>
       <c r="D1307" s="2"/>
     </row>
@@ -26152,10 +26174,10 @@
         <v>48</v>
       </c>
       <c r="B1308" t="s" s="2">
-        <v>2840</v>
+        <v>2838</v>
       </c>
       <c r="C1308" t="s" s="2">
-        <v>2841</v>
+        <v>2839</v>
       </c>
       <c r="D1308" s="2"/>
     </row>
@@ -26164,10 +26186,10 @@
         <v>48</v>
       </c>
       <c r="B1309" t="s" s="2">
-        <v>2842</v>
+        <v>2840</v>
       </c>
       <c r="C1309" t="s" s="2">
-        <v>2843</v>
+        <v>2841</v>
       </c>
       <c r="D1309" s="2"/>
     </row>
@@ -26176,10 +26198,10 @@
         <v>48</v>
       </c>
       <c r="B1310" t="s" s="2">
-        <v>2844</v>
+        <v>2842</v>
       </c>
       <c r="C1310" t="s" s="2">
-        <v>2845</v>
+        <v>2843</v>
       </c>
       <c r="D1310" s="2"/>
     </row>
@@ -26188,13 +26210,13 @@
         <v>48</v>
       </c>
       <c r="B1311" t="s" s="2">
+        <v>2844</v>
+      </c>
+      <c r="C1311" t="s" s="2">
+        <v>2845</v>
+      </c>
+      <c r="D1311" t="s" s="2">
         <v>2846</v>
-      </c>
-      <c r="C1311" t="s" s="2">
-        <v>2847</v>
-      </c>
-      <c r="D1311" t="s" s="2">
-        <v>2848</v>
       </c>
     </row>
     <row r="1312">
@@ -26202,10 +26224,10 @@
         <v>48</v>
       </c>
       <c r="B1312" t="s" s="2">
-        <v>2849</v>
+        <v>2847</v>
       </c>
       <c r="C1312" t="s" s="2">
-        <v>2850</v>
+        <v>2848</v>
       </c>
       <c r="D1312" s="2"/>
     </row>
@@ -26214,10 +26236,10 @@
         <v>48</v>
       </c>
       <c r="B1313" t="s" s="2">
-        <v>2851</v>
+        <v>2849</v>
       </c>
       <c r="C1313" t="s" s="2">
-        <v>2852</v>
+        <v>2850</v>
       </c>
       <c r="D1313" s="2"/>
     </row>
@@ -26226,10 +26248,10 @@
         <v>48</v>
       </c>
       <c r="B1314" t="s" s="2">
-        <v>2853</v>
+        <v>2851</v>
       </c>
       <c r="C1314" t="s" s="2">
-        <v>2854</v>
+        <v>2852</v>
       </c>
       <c r="D1314" s="2"/>
     </row>
@@ -26238,10 +26260,10 @@
         <v>48</v>
       </c>
       <c r="B1315" t="s" s="2">
-        <v>2855</v>
+        <v>2853</v>
       </c>
       <c r="C1315" t="s" s="2">
-        <v>2856</v>
+        <v>2854</v>
       </c>
       <c r="D1315" s="2"/>
     </row>
@@ -26250,10 +26272,10 @@
         <v>48</v>
       </c>
       <c r="B1316" t="s" s="2">
-        <v>2857</v>
+        <v>2855</v>
       </c>
       <c r="C1316" t="s" s="2">
-        <v>2858</v>
+        <v>2856</v>
       </c>
       <c r="D1316" s="2"/>
     </row>
@@ -26262,10 +26284,10 @@
         <v>48</v>
       </c>
       <c r="B1317" t="s" s="2">
-        <v>2859</v>
+        <v>2857</v>
       </c>
       <c r="C1317" t="s" s="2">
-        <v>2860</v>
+        <v>2858</v>
       </c>
       <c r="D1317" s="2"/>
     </row>
@@ -26274,13 +26296,13 @@
         <v>48</v>
       </c>
       <c r="B1318" t="s" s="2">
+        <v>2859</v>
+      </c>
+      <c r="C1318" t="s" s="2">
+        <v>2860</v>
+      </c>
+      <c r="D1318" t="s" s="2">
         <v>2861</v>
-      </c>
-      <c r="C1318" t="s" s="2">
-        <v>2862</v>
-      </c>
-      <c r="D1318" t="s" s="2">
-        <v>2863</v>
       </c>
     </row>
     <row r="1319">
@@ -26288,7 +26310,7 @@
         <v>48</v>
       </c>
       <c r="B1319" t="s" s="2">
-        <v>2864</v>
+        <v>2862</v>
       </c>
       <c r="C1319" t="s" s="2">
         <v>777</v>
@@ -26300,10 +26322,10 @@
         <v>48</v>
       </c>
       <c r="B1320" t="s" s="2">
-        <v>2865</v>
+        <v>2863</v>
       </c>
       <c r="C1320" t="s" s="2">
-        <v>2866</v>
+        <v>2864</v>
       </c>
       <c r="D1320" s="2"/>
     </row>
@@ -26312,10 +26334,10 @@
         <v>48</v>
       </c>
       <c r="B1321" t="s" s="2">
-        <v>2867</v>
+        <v>2865</v>
       </c>
       <c r="C1321" t="s" s="2">
-        <v>2868</v>
+        <v>2866</v>
       </c>
       <c r="D1321" s="2"/>
     </row>
@@ -26324,10 +26346,10 @@
         <v>48</v>
       </c>
       <c r="B1322" t="s" s="2">
-        <v>2869</v>
+        <v>2867</v>
       </c>
       <c r="C1322" t="s" s="2">
-        <v>2870</v>
+        <v>2868</v>
       </c>
       <c r="D1322" s="2"/>
     </row>
@@ -26336,10 +26358,10 @@
         <v>48</v>
       </c>
       <c r="B1323" t="s" s="2">
-        <v>2871</v>
+        <v>2869</v>
       </c>
       <c r="C1323" t="s" s="2">
-        <v>2872</v>
+        <v>2870</v>
       </c>
       <c r="D1323" s="2"/>
     </row>
@@ -26348,10 +26370,10 @@
         <v>48</v>
       </c>
       <c r="B1324" t="s" s="2">
-        <v>2873</v>
+        <v>2871</v>
       </c>
       <c r="C1324" t="s" s="2">
-        <v>2874</v>
+        <v>2872</v>
       </c>
       <c r="D1324" s="2"/>
     </row>
@@ -26360,10 +26382,10 @@
         <v>48</v>
       </c>
       <c r="B1325" t="s" s="2">
-        <v>2875</v>
+        <v>2873</v>
       </c>
       <c r="C1325" t="s" s="2">
-        <v>2876</v>
+        <v>2874</v>
       </c>
       <c r="D1325" s="2"/>
     </row>
@@ -26372,7 +26394,7 @@
         <v>48</v>
       </c>
       <c r="B1326" t="s" s="2">
-        <v>2877</v>
+        <v>2875</v>
       </c>
       <c r="C1326" t="s" s="2">
         <v>1901</v>
@@ -26384,7 +26406,7 @@
         <v>48</v>
       </c>
       <c r="B1327" t="s" s="2">
-        <v>2878</v>
+        <v>2876</v>
       </c>
       <c r="C1327" t="s" s="2">
         <v>1903</v>
@@ -26396,10 +26418,10 @@
         <v>48</v>
       </c>
       <c r="B1328" t="s" s="2">
-        <v>2879</v>
+        <v>2877</v>
       </c>
       <c r="C1328" t="s" s="2">
-        <v>2880</v>
+        <v>2878</v>
       </c>
       <c r="D1328" s="2"/>
     </row>
@@ -26408,10 +26430,10 @@
         <v>48</v>
       </c>
       <c r="B1329" t="s" s="2">
-        <v>2881</v>
+        <v>2879</v>
       </c>
       <c r="C1329" t="s" s="2">
-        <v>2882</v>
+        <v>2880</v>
       </c>
       <c r="D1329" s="2"/>
     </row>
@@ -26420,13 +26442,13 @@
         <v>48</v>
       </c>
       <c r="B1330" t="s" s="2">
+        <v>2881</v>
+      </c>
+      <c r="C1330" t="s" s="2">
+        <v>2882</v>
+      </c>
+      <c r="D1330" t="s" s="2">
         <v>2883</v>
-      </c>
-      <c r="C1330" t="s" s="2">
-        <v>2884</v>
-      </c>
-      <c r="D1330" t="s" s="2">
-        <v>2885</v>
       </c>
     </row>
     <row r="1331">
@@ -26434,10 +26456,10 @@
         <v>48</v>
       </c>
       <c r="B1331" t="s" s="2">
-        <v>2886</v>
+        <v>2884</v>
       </c>
       <c r="C1331" t="s" s="2">
-        <v>2887</v>
+        <v>2885</v>
       </c>
       <c r="D1331" s="2"/>
     </row>
@@ -26446,10 +26468,10 @@
         <v>48</v>
       </c>
       <c r="B1332" t="s" s="2">
-        <v>2888</v>
+        <v>2886</v>
       </c>
       <c r="C1332" t="s" s="2">
-        <v>2889</v>
+        <v>2887</v>
       </c>
       <c r="D1332" s="2"/>
     </row>
@@ -26458,10 +26480,10 @@
         <v>48</v>
       </c>
       <c r="B1333" t="s" s="2">
-        <v>2890</v>
+        <v>2888</v>
       </c>
       <c r="C1333" t="s" s="2">
-        <v>2891</v>
+        <v>2889</v>
       </c>
       <c r="D1333" s="2"/>
     </row>
@@ -26470,10 +26492,10 @@
         <v>48</v>
       </c>
       <c r="B1334" t="s" s="2">
-        <v>2892</v>
+        <v>2890</v>
       </c>
       <c r="C1334" t="s" s="2">
-        <v>2893</v>
+        <v>2891</v>
       </c>
       <c r="D1334" s="2"/>
     </row>
@@ -26482,10 +26504,10 @@
         <v>48</v>
       </c>
       <c r="B1335" t="s" s="2">
-        <v>2894</v>
+        <v>2892</v>
       </c>
       <c r="C1335" t="s" s="2">
-        <v>2895</v>
+        <v>2893</v>
       </c>
       <c r="D1335" s="2"/>
     </row>
@@ -26494,10 +26516,10 @@
         <v>48</v>
       </c>
       <c r="B1336" t="s" s="2">
-        <v>2896</v>
+        <v>2894</v>
       </c>
       <c r="C1336" t="s" s="2">
-        <v>2829</v>
+        <v>2827</v>
       </c>
       <c r="D1336" s="2"/>
     </row>
@@ -26506,10 +26528,10 @@
         <v>48</v>
       </c>
       <c r="B1337" t="s" s="2">
-        <v>2897</v>
+        <v>2895</v>
       </c>
       <c r="C1337" t="s" s="2">
-        <v>2898</v>
+        <v>2896</v>
       </c>
       <c r="D1337" s="2"/>
     </row>
@@ -26518,10 +26540,10 @@
         <v>48</v>
       </c>
       <c r="B1338" t="s" s="2">
-        <v>2899</v>
+        <v>2897</v>
       </c>
       <c r="C1338" t="s" s="2">
-        <v>2900</v>
+        <v>2898</v>
       </c>
       <c r="D1338" s="2"/>
     </row>
@@ -26530,10 +26552,10 @@
         <v>48</v>
       </c>
       <c r="B1339" t="s" s="2">
-        <v>2901</v>
+        <v>2899</v>
       </c>
       <c r="C1339" t="s" s="2">
-        <v>2902</v>
+        <v>2900</v>
       </c>
       <c r="D1339" s="2"/>
     </row>
@@ -26542,7 +26564,7 @@
         <v>48</v>
       </c>
       <c r="B1340" t="s" s="2">
-        <v>2903</v>
+        <v>2901</v>
       </c>
       <c r="C1340" t="s" s="2">
         <v>1717</v>
@@ -26554,10 +26576,10 @@
         <v>48</v>
       </c>
       <c r="B1341" t="s" s="2">
-        <v>2904</v>
+        <v>2902</v>
       </c>
       <c r="C1341" t="s" s="2">
-        <v>2905</v>
+        <v>2903</v>
       </c>
       <c r="D1341" s="2"/>
     </row>
@@ -26566,10 +26588,10 @@
         <v>48</v>
       </c>
       <c r="B1342" t="s" s="2">
-        <v>2906</v>
+        <v>2904</v>
       </c>
       <c r="C1342" t="s" s="2">
-        <v>2907</v>
+        <v>2905</v>
       </c>
       <c r="D1342" s="2"/>
     </row>
@@ -26578,10 +26600,10 @@
         <v>48</v>
       </c>
       <c r="B1343" t="s" s="2">
-        <v>2908</v>
+        <v>2906</v>
       </c>
       <c r="C1343" t="s" s="2">
-        <v>2909</v>
+        <v>2907</v>
       </c>
       <c r="D1343" s="2"/>
     </row>
@@ -26590,10 +26612,10 @@
         <v>48</v>
       </c>
       <c r="B1344" t="s" s="2">
-        <v>2910</v>
+        <v>2908</v>
       </c>
       <c r="C1344" t="s" s="2">
-        <v>2911</v>
+        <v>2909</v>
       </c>
       <c r="D1344" s="2"/>
     </row>
@@ -26602,10 +26624,10 @@
         <v>48</v>
       </c>
       <c r="B1345" t="s" s="2">
-        <v>2912</v>
+        <v>2910</v>
       </c>
       <c r="C1345" t="s" s="2">
-        <v>2913</v>
+        <v>2911</v>
       </c>
       <c r="D1345" s="2"/>
     </row>
@@ -26614,10 +26636,10 @@
         <v>48</v>
       </c>
       <c r="B1346" t="s" s="2">
-        <v>2914</v>
+        <v>2912</v>
       </c>
       <c r="C1346" t="s" s="2">
-        <v>2915</v>
+        <v>2913</v>
       </c>
       <c r="D1346" s="2"/>
     </row>
@@ -26626,10 +26648,10 @@
         <v>48</v>
       </c>
       <c r="B1347" t="s" s="2">
-        <v>2916</v>
+        <v>2914</v>
       </c>
       <c r="C1347" t="s" s="2">
-        <v>2917</v>
+        <v>2915</v>
       </c>
       <c r="D1347" s="2"/>
     </row>
@@ -26638,10 +26660,10 @@
         <v>48</v>
       </c>
       <c r="B1348" t="s" s="2">
-        <v>2918</v>
+        <v>2916</v>
       </c>
       <c r="C1348" t="s" s="2">
-        <v>2919</v>
+        <v>2917</v>
       </c>
       <c r="D1348" s="2"/>
     </row>
@@ -26650,10 +26672,10 @@
         <v>48</v>
       </c>
       <c r="B1349" t="s" s="2">
-        <v>2920</v>
+        <v>2918</v>
       </c>
       <c r="C1349" t="s" s="2">
-        <v>2921</v>
+        <v>2919</v>
       </c>
       <c r="D1349" s="2"/>
     </row>
@@ -26662,10 +26684,10 @@
         <v>48</v>
       </c>
       <c r="B1350" t="s" s="2">
-        <v>2922</v>
+        <v>2920</v>
       </c>
       <c r="C1350" t="s" s="2">
-        <v>2923</v>
+        <v>2921</v>
       </c>
       <c r="D1350" s="2"/>
     </row>
@@ -26674,10 +26696,10 @@
         <v>48</v>
       </c>
       <c r="B1351" t="s" s="2">
-        <v>2924</v>
+        <v>2922</v>
       </c>
       <c r="C1351" t="s" s="2">
-        <v>2925</v>
+        <v>2923</v>
       </c>
       <c r="D1351" s="2"/>
     </row>
@@ -26686,10 +26708,10 @@
         <v>48</v>
       </c>
       <c r="B1352" t="s" s="2">
-        <v>2926</v>
+        <v>2924</v>
       </c>
       <c r="C1352" t="s" s="2">
-        <v>2927</v>
+        <v>2925</v>
       </c>
       <c r="D1352" s="2"/>
     </row>
@@ -26698,10 +26720,10 @@
         <v>48</v>
       </c>
       <c r="B1353" t="s" s="2">
-        <v>2928</v>
+        <v>2926</v>
       </c>
       <c r="C1353" t="s" s="2">
-        <v>2929</v>
+        <v>2927</v>
       </c>
       <c r="D1353" s="2"/>
     </row>
@@ -26710,10 +26732,10 @@
         <v>48</v>
       </c>
       <c r="B1354" t="s" s="2">
-        <v>2930</v>
+        <v>2928</v>
       </c>
       <c r="C1354" t="s" s="2">
-        <v>2931</v>
+        <v>2929</v>
       </c>
       <c r="D1354" s="2"/>
     </row>
@@ -26722,13 +26744,13 @@
         <v>48</v>
       </c>
       <c r="B1355" t="s" s="2">
+        <v>2930</v>
+      </c>
+      <c r="C1355" t="s" s="2">
+        <v>2931</v>
+      </c>
+      <c r="D1355" t="s" s="2">
         <v>2932</v>
-      </c>
-      <c r="C1355" t="s" s="2">
-        <v>2933</v>
-      </c>
-      <c r="D1355" t="s" s="2">
-        <v>2934</v>
       </c>
     </row>
     <row r="1356">
@@ -26736,13 +26758,13 @@
         <v>48</v>
       </c>
       <c r="B1356" t="s" s="2">
+        <v>2933</v>
+      </c>
+      <c r="C1356" t="s" s="2">
+        <v>2934</v>
+      </c>
+      <c r="D1356" t="s" s="2">
         <v>2935</v>
-      </c>
-      <c r="C1356" t="s" s="2">
-        <v>2936</v>
-      </c>
-      <c r="D1356" t="s" s="2">
-        <v>2937</v>
       </c>
     </row>
     <row r="1357">
@@ -26750,13 +26772,13 @@
         <v>48</v>
       </c>
       <c r="B1357" t="s" s="2">
+        <v>2936</v>
+      </c>
+      <c r="C1357" t="s" s="2">
+        <v>2937</v>
+      </c>
+      <c r="D1357" t="s" s="2">
         <v>2938</v>
-      </c>
-      <c r="C1357" t="s" s="2">
-        <v>2939</v>
-      </c>
-      <c r="D1357" t="s" s="2">
-        <v>2940</v>
       </c>
     </row>
     <row r="1358">
@@ -26764,13 +26786,13 @@
         <v>48</v>
       </c>
       <c r="B1358" t="s" s="2">
+        <v>2939</v>
+      </c>
+      <c r="C1358" t="s" s="2">
+        <v>2940</v>
+      </c>
+      <c r="D1358" t="s" s="2">
         <v>2941</v>
-      </c>
-      <c r="C1358" t="s" s="2">
-        <v>2942</v>
-      </c>
-      <c r="D1358" t="s" s="2">
-        <v>2943</v>
       </c>
     </row>
     <row r="1359">
@@ -26778,13 +26800,13 @@
         <v>48</v>
       </c>
       <c r="B1359" t="s" s="2">
+        <v>2942</v>
+      </c>
+      <c r="C1359" t="s" s="2">
+        <v>2943</v>
+      </c>
+      <c r="D1359" t="s" s="2">
         <v>2944</v>
-      </c>
-      <c r="C1359" t="s" s="2">
-        <v>2945</v>
-      </c>
-      <c r="D1359" t="s" s="2">
-        <v>2946</v>
       </c>
     </row>
     <row r="1360">
@@ -26792,10 +26814,10 @@
         <v>48</v>
       </c>
       <c r="B1360" t="s" s="2">
-        <v>2947</v>
+        <v>2945</v>
       </c>
       <c r="C1360" t="s" s="2">
-        <v>2948</v>
+        <v>2946</v>
       </c>
       <c r="D1360" s="2"/>
     </row>
@@ -26804,10 +26826,10 @@
         <v>48</v>
       </c>
       <c r="B1361" t="s" s="2">
-        <v>2949</v>
+        <v>2947</v>
       </c>
       <c r="C1361" t="s" s="2">
-        <v>2950</v>
+        <v>2948</v>
       </c>
       <c r="D1361" s="2"/>
     </row>
@@ -26816,10 +26838,10 @@
         <v>48</v>
       </c>
       <c r="B1362" t="s" s="2">
-        <v>2951</v>
+        <v>2949</v>
       </c>
       <c r="C1362" t="s" s="2">
-        <v>2952</v>
+        <v>2950</v>
       </c>
       <c r="D1362" s="2"/>
     </row>
@@ -26828,13 +26850,13 @@
         <v>48</v>
       </c>
       <c r="B1363" t="s" s="2">
+        <v>2951</v>
+      </c>
+      <c r="C1363" t="s" s="2">
+        <v>2952</v>
+      </c>
+      <c r="D1363" t="s" s="2">
         <v>2953</v>
-      </c>
-      <c r="C1363" t="s" s="2">
-        <v>2954</v>
-      </c>
-      <c r="D1363" t="s" s="2">
-        <v>2955</v>
       </c>
     </row>
     <row r="1364">
@@ -26842,10 +26864,10 @@
         <v>48</v>
       </c>
       <c r="B1364" t="s" s="2">
-        <v>2956</v>
+        <v>2954</v>
       </c>
       <c r="C1364" t="s" s="2">
-        <v>2957</v>
+        <v>2955</v>
       </c>
       <c r="D1364" s="2"/>
     </row>
@@ -26854,13 +26876,13 @@
         <v>48</v>
       </c>
       <c r="B1365" t="s" s="2">
+        <v>2956</v>
+      </c>
+      <c r="C1365" t="s" s="2">
+        <v>2957</v>
+      </c>
+      <c r="D1365" t="s" s="2">
         <v>2958</v>
-      </c>
-      <c r="C1365" t="s" s="2">
-        <v>2959</v>
-      </c>
-      <c r="D1365" t="s" s="2">
-        <v>2960</v>
       </c>
     </row>
     <row r="1366">
@@ -26868,10 +26890,10 @@
         <v>48</v>
       </c>
       <c r="B1366" t="s" s="2">
-        <v>2961</v>
+        <v>2959</v>
       </c>
       <c r="C1366" t="s" s="2">
-        <v>2962</v>
+        <v>2960</v>
       </c>
       <c r="D1366" s="2"/>
     </row>
@@ -26880,13 +26902,13 @@
         <v>48</v>
       </c>
       <c r="B1367" t="s" s="2">
+        <v>2961</v>
+      </c>
+      <c r="C1367" t="s" s="2">
+        <v>2962</v>
+      </c>
+      <c r="D1367" t="s" s="2">
         <v>2963</v>
-      </c>
-      <c r="C1367" t="s" s="2">
-        <v>2964</v>
-      </c>
-      <c r="D1367" t="s" s="2">
-        <v>2965</v>
       </c>
     </row>
     <row r="1368">
@@ -26894,10 +26916,10 @@
         <v>48</v>
       </c>
       <c r="B1368" t="s" s="2">
-        <v>2966</v>
+        <v>2964</v>
       </c>
       <c r="C1368" t="s" s="2">
-        <v>2967</v>
+        <v>2965</v>
       </c>
       <c r="D1368" s="2"/>
     </row>
@@ -26906,10 +26928,10 @@
         <v>48</v>
       </c>
       <c r="B1369" t="s" s="2">
-        <v>2968</v>
+        <v>2966</v>
       </c>
       <c r="C1369" t="s" s="2">
-        <v>2969</v>
+        <v>2967</v>
       </c>
       <c r="D1369" s="2"/>
     </row>
@@ -26918,13 +26940,13 @@
         <v>48</v>
       </c>
       <c r="B1370" t="s" s="2">
+        <v>2968</v>
+      </c>
+      <c r="C1370" t="s" s="2">
+        <v>2969</v>
+      </c>
+      <c r="D1370" t="s" s="2">
         <v>2970</v>
-      </c>
-      <c r="C1370" t="s" s="2">
-        <v>2971</v>
-      </c>
-      <c r="D1370" t="s" s="2">
-        <v>2972</v>
       </c>
     </row>
     <row r="1371">
@@ -26932,13 +26954,13 @@
         <v>48</v>
       </c>
       <c r="B1371" t="s" s="2">
+        <v>2971</v>
+      </c>
+      <c r="C1371" t="s" s="2">
+        <v>2972</v>
+      </c>
+      <c r="D1371" t="s" s="2">
         <v>2973</v>
-      </c>
-      <c r="C1371" t="s" s="2">
-        <v>2974</v>
-      </c>
-      <c r="D1371" t="s" s="2">
-        <v>2975</v>
       </c>
     </row>
     <row r="1372">
@@ -26946,13 +26968,13 @@
         <v>48</v>
       </c>
       <c r="B1372" t="s" s="2">
+        <v>2974</v>
+      </c>
+      <c r="C1372" t="s" s="2">
+        <v>2975</v>
+      </c>
+      <c r="D1372" t="s" s="2">
         <v>2976</v>
-      </c>
-      <c r="C1372" t="s" s="2">
-        <v>2977</v>
-      </c>
-      <c r="D1372" t="s" s="2">
-        <v>2978</v>
       </c>
     </row>
     <row r="1373">
@@ -26960,13 +26982,13 @@
         <v>48</v>
       </c>
       <c r="B1373" t="s" s="2">
+        <v>2977</v>
+      </c>
+      <c r="C1373" t="s" s="2">
+        <v>2978</v>
+      </c>
+      <c r="D1373" t="s" s="2">
         <v>2979</v>
-      </c>
-      <c r="C1373" t="s" s="2">
-        <v>2980</v>
-      </c>
-      <c r="D1373" t="s" s="2">
-        <v>2981</v>
       </c>
     </row>
     <row r="1374">
@@ -26974,13 +26996,13 @@
         <v>48</v>
       </c>
       <c r="B1374" t="s" s="2">
+        <v>2980</v>
+      </c>
+      <c r="C1374" t="s" s="2">
+        <v>2981</v>
+      </c>
+      <c r="D1374" t="s" s="2">
         <v>2982</v>
-      </c>
-      <c r="C1374" t="s" s="2">
-        <v>2983</v>
-      </c>
-      <c r="D1374" t="s" s="2">
-        <v>2984</v>
       </c>
     </row>
     <row r="1375">
@@ -26988,13 +27010,13 @@
         <v>48</v>
       </c>
       <c r="B1375" t="s" s="2">
+        <v>2983</v>
+      </c>
+      <c r="C1375" t="s" s="2">
+        <v>2984</v>
+      </c>
+      <c r="D1375" t="s" s="2">
         <v>2985</v>
-      </c>
-      <c r="C1375" t="s" s="2">
-        <v>2986</v>
-      </c>
-      <c r="D1375" t="s" s="2">
-        <v>2987</v>
       </c>
     </row>
     <row r="1376">
@@ -27002,13 +27024,13 @@
         <v>48</v>
       </c>
       <c r="B1376" t="s" s="2">
+        <v>2986</v>
+      </c>
+      <c r="C1376" t="s" s="2">
+        <v>2987</v>
+      </c>
+      <c r="D1376" t="s" s="2">
         <v>2988</v>
-      </c>
-      <c r="C1376" t="s" s="2">
-        <v>2989</v>
-      </c>
-      <c r="D1376" t="s" s="2">
-        <v>2990</v>
       </c>
     </row>
     <row r="1377">
@@ -27016,13 +27038,13 @@
         <v>48</v>
       </c>
       <c r="B1377" t="s" s="2">
+        <v>2989</v>
+      </c>
+      <c r="C1377" t="s" s="2">
+        <v>2990</v>
+      </c>
+      <c r="D1377" t="s" s="2">
         <v>2991</v>
-      </c>
-      <c r="C1377" t="s" s="2">
-        <v>2992</v>
-      </c>
-      <c r="D1377" t="s" s="2">
-        <v>2993</v>
       </c>
     </row>
     <row r="1378">
@@ -27030,13 +27052,13 @@
         <v>48</v>
       </c>
       <c r="B1378" t="s" s="2">
+        <v>2992</v>
+      </c>
+      <c r="C1378" t="s" s="2">
+        <v>2993</v>
+      </c>
+      <c r="D1378" t="s" s="2">
         <v>2994</v>
-      </c>
-      <c r="C1378" t="s" s="2">
-        <v>2995</v>
-      </c>
-      <c r="D1378" t="s" s="2">
-        <v>2996</v>
       </c>
     </row>
     <row r="1379">
@@ -27044,13 +27066,13 @@
         <v>48</v>
       </c>
       <c r="B1379" t="s" s="2">
+        <v>2995</v>
+      </c>
+      <c r="C1379" t="s" s="2">
+        <v>2996</v>
+      </c>
+      <c r="D1379" t="s" s="2">
         <v>2997</v>
-      </c>
-      <c r="C1379" t="s" s="2">
-        <v>2998</v>
-      </c>
-      <c r="D1379" t="s" s="2">
-        <v>2999</v>
       </c>
     </row>
     <row r="1380">
@@ -27058,10 +27080,10 @@
         <v>48</v>
       </c>
       <c r="B1380" t="s" s="2">
-        <v>3000</v>
+        <v>2998</v>
       </c>
       <c r="C1380" t="s" s="2">
-        <v>3001</v>
+        <v>2999</v>
       </c>
       <c r="D1380" s="2"/>
     </row>
@@ -27070,10 +27092,10 @@
         <v>48</v>
       </c>
       <c r="B1381" t="s" s="2">
-        <v>3002</v>
+        <v>3000</v>
       </c>
       <c r="C1381" t="s" s="2">
-        <v>3003</v>
+        <v>3001</v>
       </c>
       <c r="D1381" s="2"/>
     </row>
@@ -27082,10 +27104,10 @@
         <v>48</v>
       </c>
       <c r="B1382" t="s" s="2">
-        <v>3004</v>
+        <v>3002</v>
       </c>
       <c r="C1382" t="s" s="2">
-        <v>3005</v>
+        <v>3003</v>
       </c>
       <c r="D1382" s="2"/>
     </row>
@@ -27094,10 +27116,10 @@
         <v>48</v>
       </c>
       <c r="B1383" t="s" s="2">
-        <v>3006</v>
+        <v>3004</v>
       </c>
       <c r="C1383" t="s" s="2">
-        <v>3007</v>
+        <v>3005</v>
       </c>
       <c r="D1383" s="2"/>
     </row>
@@ -27106,10 +27128,10 @@
         <v>48</v>
       </c>
       <c r="B1384" t="s" s="2">
-        <v>3008</v>
+        <v>3006</v>
       </c>
       <c r="C1384" t="s" s="2">
-        <v>3009</v>
+        <v>3007</v>
       </c>
       <c r="D1384" s="2"/>
     </row>
@@ -27118,10 +27140,10 @@
         <v>48</v>
       </c>
       <c r="B1385" t="s" s="2">
-        <v>3010</v>
+        <v>3008</v>
       </c>
       <c r="C1385" t="s" s="2">
-        <v>3011</v>
+        <v>3009</v>
       </c>
       <c r="D1385" s="2"/>
     </row>
@@ -27130,10 +27152,10 @@
         <v>48</v>
       </c>
       <c r="B1386" t="s" s="2">
-        <v>3012</v>
+        <v>3010</v>
       </c>
       <c r="C1386" t="s" s="2">
-        <v>3013</v>
+        <v>3011</v>
       </c>
       <c r="D1386" s="2"/>
     </row>
@@ -27142,10 +27164,10 @@
         <v>48</v>
       </c>
       <c r="B1387" t="s" s="2">
-        <v>3014</v>
+        <v>3012</v>
       </c>
       <c r="C1387" t="s" s="2">
-        <v>3015</v>
+        <v>3013</v>
       </c>
       <c r="D1387" s="2"/>
     </row>
@@ -27154,13 +27176,13 @@
         <v>48</v>
       </c>
       <c r="B1388" t="s" s="2">
+        <v>3014</v>
+      </c>
+      <c r="C1388" t="s" s="2">
+        <v>3015</v>
+      </c>
+      <c r="D1388" t="s" s="2">
         <v>3016</v>
-      </c>
-      <c r="C1388" t="s" s="2">
-        <v>3017</v>
-      </c>
-      <c r="D1388" t="s" s="2">
-        <v>3018</v>
       </c>
     </row>
     <row r="1389">
@@ -27168,10 +27190,10 @@
         <v>48</v>
       </c>
       <c r="B1389" t="s" s="2">
-        <v>3019</v>
+        <v>3017</v>
       </c>
       <c r="C1389" t="s" s="2">
-        <v>3020</v>
+        <v>3018</v>
       </c>
       <c r="D1389" s="2"/>
     </row>
@@ -27180,13 +27202,13 @@
         <v>48</v>
       </c>
       <c r="B1390" t="s" s="2">
+        <v>3019</v>
+      </c>
+      <c r="C1390" t="s" s="2">
+        <v>3020</v>
+      </c>
+      <c r="D1390" t="s" s="2">
         <v>3021</v>
-      </c>
-      <c r="C1390" t="s" s="2">
-        <v>3022</v>
-      </c>
-      <c r="D1390" t="s" s="2">
-        <v>3023</v>
       </c>
     </row>
     <row r="1391">
@@ -27194,13 +27216,13 @@
         <v>48</v>
       </c>
       <c r="B1391" t="s" s="2">
+        <v>3022</v>
+      </c>
+      <c r="C1391" t="s" s="2">
+        <v>3023</v>
+      </c>
+      <c r="D1391" t="s" s="2">
         <v>3024</v>
-      </c>
-      <c r="C1391" t="s" s="2">
-        <v>3025</v>
-      </c>
-      <c r="D1391" t="s" s="2">
-        <v>3026</v>
       </c>
     </row>
     <row r="1392">
@@ -27208,13 +27230,13 @@
         <v>48</v>
       </c>
       <c r="B1392" t="s" s="2">
+        <v>3025</v>
+      </c>
+      <c r="C1392" t="s" s="2">
+        <v>3026</v>
+      </c>
+      <c r="D1392" t="s" s="2">
         <v>3027</v>
-      </c>
-      <c r="C1392" t="s" s="2">
-        <v>3028</v>
-      </c>
-      <c r="D1392" t="s" s="2">
-        <v>3029</v>
       </c>
     </row>
     <row r="1393">
@@ -27222,10 +27244,10 @@
         <v>48</v>
       </c>
       <c r="B1393" t="s" s="2">
-        <v>3030</v>
+        <v>3028</v>
       </c>
       <c r="C1393" t="s" s="2">
-        <v>3031</v>
+        <v>3029</v>
       </c>
       <c r="D1393" s="2"/>
     </row>
@@ -27234,13 +27256,13 @@
         <v>48</v>
       </c>
       <c r="B1394" t="s" s="2">
+        <v>3030</v>
+      </c>
+      <c r="C1394" t="s" s="2">
+        <v>3031</v>
+      </c>
+      <c r="D1394" t="s" s="2">
         <v>3032</v>
-      </c>
-      <c r="C1394" t="s" s="2">
-        <v>3033</v>
-      </c>
-      <c r="D1394" t="s" s="2">
-        <v>3034</v>
       </c>
     </row>
     <row r="1395">
@@ -27248,10 +27270,10 @@
         <v>48</v>
       </c>
       <c r="B1395" t="s" s="2">
-        <v>3035</v>
+        <v>3033</v>
       </c>
       <c r="C1395" t="s" s="2">
-        <v>3036</v>
+        <v>3034</v>
       </c>
       <c r="D1395" s="2"/>
     </row>
@@ -27260,13 +27282,13 @@
         <v>48</v>
       </c>
       <c r="B1396" t="s" s="2">
+        <v>3035</v>
+      </c>
+      <c r="C1396" t="s" s="2">
+        <v>3036</v>
+      </c>
+      <c r="D1396" t="s" s="2">
         <v>3037</v>
-      </c>
-      <c r="C1396" t="s" s="2">
-        <v>3038</v>
-      </c>
-      <c r="D1396" t="s" s="2">
-        <v>3039</v>
       </c>
     </row>
     <row r="1397">
@@ -27274,10 +27296,10 @@
         <v>48</v>
       </c>
       <c r="B1397" t="s" s="2">
-        <v>3040</v>
+        <v>3038</v>
       </c>
       <c r="C1397" t="s" s="2">
-        <v>3041</v>
+        <v>3039</v>
       </c>
       <c r="D1397" s="2"/>
     </row>
@@ -27286,10 +27308,10 @@
         <v>48</v>
       </c>
       <c r="B1398" t="s" s="2">
-        <v>3042</v>
+        <v>3040</v>
       </c>
       <c r="C1398" t="s" s="2">
-        <v>3043</v>
+        <v>3041</v>
       </c>
       <c r="D1398" s="2"/>
     </row>
@@ -27298,13 +27320,13 @@
         <v>48</v>
       </c>
       <c r="B1399" t="s" s="2">
+        <v>3042</v>
+      </c>
+      <c r="C1399" t="s" s="2">
+        <v>3043</v>
+      </c>
+      <c r="D1399" t="s" s="2">
         <v>3044</v>
-      </c>
-      <c r="C1399" t="s" s="2">
-        <v>3045</v>
-      </c>
-      <c r="D1399" t="s" s="2">
-        <v>3046</v>
       </c>
     </row>
     <row r="1400">
@@ -27312,10 +27334,10 @@
         <v>48</v>
       </c>
       <c r="B1400" t="s" s="2">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="C1400" t="s" s="2">
-        <v>3048</v>
+        <v>3046</v>
       </c>
       <c r="D1400" s="2"/>
     </row>
@@ -27324,13 +27346,13 @@
         <v>48</v>
       </c>
       <c r="B1401" t="s" s="2">
+        <v>3047</v>
+      </c>
+      <c r="C1401" t="s" s="2">
+        <v>3048</v>
+      </c>
+      <c r="D1401" t="s" s="2">
         <v>3049</v>
-      </c>
-      <c r="C1401" t="s" s="2">
-        <v>3050</v>
-      </c>
-      <c r="D1401" t="s" s="2">
-        <v>3051</v>
       </c>
     </row>
     <row r="1402">
@@ -27338,13 +27360,13 @@
         <v>48</v>
       </c>
       <c r="B1402" t="s" s="2">
+        <v>3050</v>
+      </c>
+      <c r="C1402" t="s" s="2">
+        <v>3051</v>
+      </c>
+      <c r="D1402" t="s" s="2">
         <v>3052</v>
-      </c>
-      <c r="C1402" t="s" s="2">
-        <v>3053</v>
-      </c>
-      <c r="D1402" t="s" s="2">
-        <v>3054</v>
       </c>
     </row>
     <row r="1403">
@@ -27352,10 +27374,10 @@
         <v>48</v>
       </c>
       <c r="B1403" t="s" s="2">
-        <v>3055</v>
+        <v>3053</v>
       </c>
       <c r="C1403" t="s" s="2">
-        <v>3056</v>
+        <v>3054</v>
       </c>
       <c r="D1403" s="2"/>
     </row>
@@ -27364,10 +27386,10 @@
         <v>48</v>
       </c>
       <c r="B1404" t="s" s="2">
-        <v>3057</v>
+        <v>3055</v>
       </c>
       <c r="C1404" t="s" s="2">
-        <v>3058</v>
+        <v>3056</v>
       </c>
       <c r="D1404" s="2"/>
     </row>
@@ -27376,13 +27398,13 @@
         <v>48</v>
       </c>
       <c r="B1405" t="s" s="2">
+        <v>3057</v>
+      </c>
+      <c r="C1405" t="s" s="2">
+        <v>3058</v>
+      </c>
+      <c r="D1405" t="s" s="2">
         <v>3059</v>
-      </c>
-      <c r="C1405" t="s" s="2">
-        <v>3060</v>
-      </c>
-      <c r="D1405" t="s" s="2">
-        <v>3061</v>
       </c>
     </row>
     <row r="1406">
@@ -27390,10 +27412,10 @@
         <v>48</v>
       </c>
       <c r="B1406" t="s" s="2">
-        <v>3062</v>
+        <v>3060</v>
       </c>
       <c r="C1406" t="s" s="2">
-        <v>3063</v>
+        <v>3061</v>
       </c>
       <c r="D1406" s="2"/>
     </row>
@@ -27402,10 +27424,10 @@
         <v>48</v>
       </c>
       <c r="B1407" t="s" s="2">
-        <v>3064</v>
+        <v>3062</v>
       </c>
       <c r="C1407" t="s" s="2">
-        <v>3065</v>
+        <v>3063</v>
       </c>
       <c r="D1407" s="2"/>
     </row>
@@ -27414,10 +27436,10 @@
         <v>48</v>
       </c>
       <c r="B1408" t="s" s="2">
-        <v>3066</v>
+        <v>3064</v>
       </c>
       <c r="C1408" t="s" s="2">
-        <v>3067</v>
+        <v>3065</v>
       </c>
       <c r="D1408" s="2"/>
     </row>
@@ -27426,10 +27448,10 @@
         <v>48</v>
       </c>
       <c r="B1409" t="s" s="2">
-        <v>3068</v>
+        <v>3066</v>
       </c>
       <c r="C1409" t="s" s="2">
-        <v>3069</v>
+        <v>3067</v>
       </c>
       <c r="D1409" s="2"/>
     </row>
@@ -27438,13 +27460,13 @@
         <v>48</v>
       </c>
       <c r="B1410" t="s" s="2">
+        <v>3068</v>
+      </c>
+      <c r="C1410" t="s" s="2">
+        <v>3069</v>
+      </c>
+      <c r="D1410" t="s" s="2">
         <v>3070</v>
-      </c>
-      <c r="C1410" t="s" s="2">
-        <v>3071</v>
-      </c>
-      <c r="D1410" t="s" s="2">
-        <v>3072</v>
       </c>
     </row>
     <row r="1411">
@@ -27452,10 +27474,10 @@
         <v>48</v>
       </c>
       <c r="B1411" t="s" s="2">
-        <v>3073</v>
+        <v>3071</v>
       </c>
       <c r="C1411" t="s" s="2">
-        <v>3074</v>
+        <v>3072</v>
       </c>
       <c r="D1411" s="2"/>
     </row>
@@ -27464,10 +27486,10 @@
         <v>48</v>
       </c>
       <c r="B1412" t="s" s="2">
-        <v>3075</v>
+        <v>3073</v>
       </c>
       <c r="C1412" t="s" s="2">
-        <v>3076</v>
+        <v>3074</v>
       </c>
       <c r="D1412" s="2"/>
     </row>
@@ -27476,10 +27498,10 @@
         <v>48</v>
       </c>
       <c r="B1413" t="s" s="2">
-        <v>3077</v>
+        <v>3075</v>
       </c>
       <c r="C1413" t="s" s="2">
-        <v>3078</v>
+        <v>3076</v>
       </c>
       <c r="D1413" s="2"/>
     </row>
@@ -27488,10 +27510,10 @@
         <v>48</v>
       </c>
       <c r="B1414" t="s" s="2">
-        <v>3079</v>
+        <v>3077</v>
       </c>
       <c r="C1414" t="s" s="2">
-        <v>3080</v>
+        <v>3078</v>
       </c>
       <c r="D1414" s="2"/>
     </row>
@@ -27500,10 +27522,10 @@
         <v>48</v>
       </c>
       <c r="B1415" t="s" s="2">
-        <v>3081</v>
+        <v>3079</v>
       </c>
       <c r="C1415" t="s" s="2">
-        <v>3082</v>
+        <v>3080</v>
       </c>
       <c r="D1415" s="2"/>
     </row>
@@ -27512,10 +27534,10 @@
         <v>48</v>
       </c>
       <c r="B1416" t="s" s="2">
-        <v>3083</v>
+        <v>3081</v>
       </c>
       <c r="C1416" t="s" s="2">
-        <v>3084</v>
+        <v>3082</v>
       </c>
       <c r="D1416" s="2"/>
     </row>
@@ -27524,10 +27546,10 @@
         <v>48</v>
       </c>
       <c r="B1417" t="s" s="2">
-        <v>3085</v>
+        <v>3083</v>
       </c>
       <c r="C1417" t="s" s="2">
-        <v>3086</v>
+        <v>3084</v>
       </c>
       <c r="D1417" s="2"/>
     </row>
@@ -27536,10 +27558,10 @@
         <v>48</v>
       </c>
       <c r="B1418" t="s" s="2">
-        <v>3087</v>
+        <v>3085</v>
       </c>
       <c r="C1418" t="s" s="2">
-        <v>3088</v>
+        <v>3086</v>
       </c>
       <c r="D1418" s="2"/>
     </row>
@@ -27548,10 +27570,10 @@
         <v>48</v>
       </c>
       <c r="B1419" t="s" s="2">
-        <v>3089</v>
+        <v>3087</v>
       </c>
       <c r="C1419" t="s" s="2">
-        <v>3090</v>
+        <v>3088</v>
       </c>
       <c r="D1419" s="2"/>
     </row>
@@ -27560,10 +27582,10 @@
         <v>48</v>
       </c>
       <c r="B1420" t="s" s="2">
-        <v>3091</v>
+        <v>3089</v>
       </c>
       <c r="C1420" t="s" s="2">
-        <v>3092</v>
+        <v>3090</v>
       </c>
       <c r="D1420" s="2"/>
     </row>
@@ -27572,10 +27594,10 @@
         <v>48</v>
       </c>
       <c r="B1421" t="s" s="2">
-        <v>3093</v>
+        <v>3091</v>
       </c>
       <c r="C1421" t="s" s="2">
-        <v>3094</v>
+        <v>3092</v>
       </c>
       <c r="D1421" s="2"/>
     </row>
@@ -27584,10 +27606,10 @@
         <v>48</v>
       </c>
       <c r="B1422" t="s" s="2">
-        <v>3095</v>
+        <v>3093</v>
       </c>
       <c r="C1422" t="s" s="2">
-        <v>3096</v>
+        <v>3094</v>
       </c>
       <c r="D1422" s="2"/>
     </row>
@@ -27596,13 +27618,13 @@
         <v>48</v>
       </c>
       <c r="B1423" t="s" s="2">
+        <v>3095</v>
+      </c>
+      <c r="C1423" t="s" s="2">
+        <v>3096</v>
+      </c>
+      <c r="D1423" t="s" s="2">
         <v>3097</v>
-      </c>
-      <c r="C1423" t="s" s="2">
-        <v>3098</v>
-      </c>
-      <c r="D1423" t="s" s="2">
-        <v>3099</v>
       </c>
     </row>
     <row r="1424">
@@ -27610,13 +27632,13 @@
         <v>48</v>
       </c>
       <c r="B1424" t="s" s="2">
+        <v>3098</v>
+      </c>
+      <c r="C1424" t="s" s="2">
+        <v>3099</v>
+      </c>
+      <c r="D1424" t="s" s="2">
         <v>3100</v>
-      </c>
-      <c r="C1424" t="s" s="2">
-        <v>3101</v>
-      </c>
-      <c r="D1424" t="s" s="2">
-        <v>3102</v>
       </c>
     </row>
     <row r="1425">
@@ -27624,13 +27646,13 @@
         <v>48</v>
       </c>
       <c r="B1425" t="s" s="2">
+        <v>3101</v>
+      </c>
+      <c r="C1425" t="s" s="2">
+        <v>3102</v>
+      </c>
+      <c r="D1425" t="s" s="2">
         <v>3103</v>
-      </c>
-      <c r="C1425" t="s" s="2">
-        <v>3104</v>
-      </c>
-      <c r="D1425" t="s" s="2">
-        <v>3105</v>
       </c>
     </row>
     <row r="1426">
@@ -27638,10 +27660,10 @@
         <v>48</v>
       </c>
       <c r="B1426" t="s" s="2">
-        <v>3106</v>
+        <v>3104</v>
       </c>
       <c r="C1426" t="s" s="2">
-        <v>3107</v>
+        <v>3105</v>
       </c>
       <c r="D1426" s="2"/>
     </row>
@@ -27650,13 +27672,13 @@
         <v>48</v>
       </c>
       <c r="B1427" t="s" s="2">
+        <v>3106</v>
+      </c>
+      <c r="C1427" t="s" s="2">
+        <v>3107</v>
+      </c>
+      <c r="D1427" t="s" s="2">
         <v>3108</v>
-      </c>
-      <c r="C1427" t="s" s="2">
-        <v>3109</v>
-      </c>
-      <c r="D1427" t="s" s="2">
-        <v>3110</v>
       </c>
     </row>
     <row r="1428">
@@ -27664,10 +27686,10 @@
         <v>48</v>
       </c>
       <c r="B1428" t="s" s="2">
-        <v>3111</v>
+        <v>3109</v>
       </c>
       <c r="C1428" t="s" s="2">
-        <v>3112</v>
+        <v>3110</v>
       </c>
       <c r="D1428" s="2"/>
     </row>
@@ -27676,10 +27698,10 @@
         <v>48</v>
       </c>
       <c r="B1429" t="s" s="2">
-        <v>3113</v>
+        <v>3111</v>
       </c>
       <c r="C1429" t="s" s="2">
-        <v>3114</v>
+        <v>3112</v>
       </c>
       <c r="D1429" s="2"/>
     </row>
@@ -27688,10 +27710,10 @@
         <v>48</v>
       </c>
       <c r="B1430" t="s" s="2">
-        <v>3115</v>
+        <v>3113</v>
       </c>
       <c r="C1430" t="s" s="2">
-        <v>3116</v>
+        <v>3114</v>
       </c>
       <c r="D1430" s="2"/>
     </row>
@@ -27700,10 +27722,10 @@
         <v>48</v>
       </c>
       <c r="B1431" t="s" s="2">
-        <v>3117</v>
+        <v>3115</v>
       </c>
       <c r="C1431" t="s" s="2">
-        <v>3118</v>
+        <v>3116</v>
       </c>
       <c r="D1431" s="2"/>
     </row>
@@ -27712,10 +27734,10 @@
         <v>48</v>
       </c>
       <c r="B1432" t="s" s="2">
-        <v>3119</v>
+        <v>3117</v>
       </c>
       <c r="C1432" t="s" s="2">
-        <v>3120</v>
+        <v>3118</v>
       </c>
       <c r="D1432" s="2"/>
     </row>
@@ -27724,10 +27746,10 @@
         <v>48</v>
       </c>
       <c r="B1433" t="s" s="2">
-        <v>3121</v>
+        <v>3119</v>
       </c>
       <c r="C1433" t="s" s="2">
-        <v>3122</v>
+        <v>3120</v>
       </c>
       <c r="D1433" s="2"/>
     </row>
@@ -27736,10 +27758,10 @@
         <v>48</v>
       </c>
       <c r="B1434" t="s" s="2">
-        <v>3123</v>
+        <v>3121</v>
       </c>
       <c r="C1434" t="s" s="2">
-        <v>3124</v>
+        <v>3122</v>
       </c>
       <c r="D1434" s="2"/>
     </row>
@@ -27748,10 +27770,10 @@
         <v>48</v>
       </c>
       <c r="B1435" t="s" s="2">
-        <v>3125</v>
+        <v>3123</v>
       </c>
       <c r="C1435" t="s" s="2">
-        <v>3126</v>
+        <v>3124</v>
       </c>
       <c r="D1435" s="2"/>
     </row>
@@ -27760,10 +27782,10 @@
         <v>48</v>
       </c>
       <c r="B1436" t="s" s="2">
-        <v>3127</v>
+        <v>3125</v>
       </c>
       <c r="C1436" t="s" s="2">
-        <v>3128</v>
+        <v>3126</v>
       </c>
       <c r="D1436" s="2"/>
     </row>
@@ -27772,10 +27794,10 @@
         <v>48</v>
       </c>
       <c r="B1437" t="s" s="2">
-        <v>3129</v>
+        <v>3127</v>
       </c>
       <c r="C1437" t="s" s="2">
-        <v>3130</v>
+        <v>3128</v>
       </c>
       <c r="D1437" s="2"/>
     </row>
@@ -27784,10 +27806,10 @@
         <v>48</v>
       </c>
       <c r="B1438" t="s" s="2">
-        <v>3131</v>
+        <v>3129</v>
       </c>
       <c r="C1438" t="s" s="2">
-        <v>3132</v>
+        <v>3130</v>
       </c>
       <c r="D1438" s="2"/>
     </row>
@@ -27796,10 +27818,10 @@
         <v>48</v>
       </c>
       <c r="B1439" t="s" s="2">
-        <v>3133</v>
+        <v>3131</v>
       </c>
       <c r="C1439" t="s" s="2">
-        <v>3134</v>
+        <v>3132</v>
       </c>
       <c r="D1439" s="2"/>
     </row>
@@ -27808,10 +27830,10 @@
         <v>48</v>
       </c>
       <c r="B1440" t="s" s="2">
-        <v>3135</v>
+        <v>3133</v>
       </c>
       <c r="C1440" t="s" s="2">
-        <v>3136</v>
+        <v>3134</v>
       </c>
       <c r="D1440" s="2"/>
     </row>
@@ -27820,10 +27842,10 @@
         <v>48</v>
       </c>
       <c r="B1441" t="s" s="2">
-        <v>3137</v>
+        <v>3135</v>
       </c>
       <c r="C1441" t="s" s="2">
-        <v>3138</v>
+        <v>3136</v>
       </c>
       <c r="D1441" s="2"/>
     </row>
@@ -27832,10 +27854,10 @@
         <v>48</v>
       </c>
       <c r="B1442" t="s" s="2">
-        <v>3139</v>
+        <v>3137</v>
       </c>
       <c r="C1442" t="s" s="2">
-        <v>3140</v>
+        <v>3138</v>
       </c>
       <c r="D1442" s="2"/>
     </row>
@@ -27844,10 +27866,10 @@
         <v>48</v>
       </c>
       <c r="B1443" t="s" s="2">
-        <v>3141</v>
+        <v>3139</v>
       </c>
       <c r="C1443" t="s" s="2">
-        <v>3142</v>
+        <v>3140</v>
       </c>
       <c r="D1443" s="2"/>
     </row>
@@ -27856,10 +27878,10 @@
         <v>48</v>
       </c>
       <c r="B1444" t="s" s="2">
-        <v>3143</v>
+        <v>3141</v>
       </c>
       <c r="C1444" t="s" s="2">
-        <v>3144</v>
+        <v>3142</v>
       </c>
       <c r="D1444" s="2"/>
     </row>
@@ -27868,10 +27890,10 @@
         <v>48</v>
       </c>
       <c r="B1445" t="s" s="2">
-        <v>3145</v>
+        <v>3143</v>
       </c>
       <c r="C1445" t="s" s="2">
-        <v>3146</v>
+        <v>3144</v>
       </c>
       <c r="D1445" s="2"/>
     </row>
@@ -27880,10 +27902,10 @@
         <v>48</v>
       </c>
       <c r="B1446" t="s" s="2">
-        <v>3147</v>
+        <v>3145</v>
       </c>
       <c r="C1446" t="s" s="2">
-        <v>3148</v>
+        <v>3146</v>
       </c>
       <c r="D1446" s="2"/>
     </row>
@@ -27892,10 +27914,10 @@
         <v>48</v>
       </c>
       <c r="B1447" t="s" s="2">
-        <v>3149</v>
+        <v>3147</v>
       </c>
       <c r="C1447" t="s" s="2">
-        <v>3150</v>
+        <v>3148</v>
       </c>
       <c r="D1447" s="2"/>
     </row>
@@ -27904,10 +27926,10 @@
         <v>48</v>
       </c>
       <c r="B1448" t="s" s="2">
-        <v>3151</v>
+        <v>3149</v>
       </c>
       <c r="C1448" t="s" s="2">
-        <v>3152</v>
+        <v>3150</v>
       </c>
       <c r="D1448" s="2"/>
     </row>
@@ -27916,10 +27938,10 @@
         <v>48</v>
       </c>
       <c r="B1449" t="s" s="2">
-        <v>3153</v>
+        <v>3151</v>
       </c>
       <c r="C1449" t="s" s="2">
-        <v>3154</v>
+        <v>3152</v>
       </c>
       <c r="D1449" s="2"/>
     </row>
@@ -27928,10 +27950,10 @@
         <v>48</v>
       </c>
       <c r="B1450" t="s" s="2">
-        <v>3155</v>
+        <v>3153</v>
       </c>
       <c r="C1450" t="s" s="2">
-        <v>3156</v>
+        <v>3154</v>
       </c>
       <c r="D1450" s="2"/>
     </row>
@@ -27940,10 +27962,10 @@
         <v>48</v>
       </c>
       <c r="B1451" t="s" s="2">
-        <v>3157</v>
+        <v>3155</v>
       </c>
       <c r="C1451" t="s" s="2">
-        <v>3158</v>
+        <v>3156</v>
       </c>
       <c r="D1451" s="2"/>
     </row>
@@ -27952,10 +27974,10 @@
         <v>48</v>
       </c>
       <c r="B1452" t="s" s="2">
-        <v>3159</v>
+        <v>3157</v>
       </c>
       <c r="C1452" t="s" s="2">
-        <v>3160</v>
+        <v>3158</v>
       </c>
       <c r="D1452" s="2"/>
     </row>
@@ -27964,10 +27986,10 @@
         <v>48</v>
       </c>
       <c r="B1453" t="s" s="2">
-        <v>3161</v>
+        <v>3159</v>
       </c>
       <c r="C1453" t="s" s="2">
-        <v>3162</v>
+        <v>3160</v>
       </c>
       <c r="D1453" s="2"/>
     </row>
@@ -27976,10 +27998,10 @@
         <v>48</v>
       </c>
       <c r="B1454" t="s" s="2">
-        <v>3163</v>
+        <v>3161</v>
       </c>
       <c r="C1454" t="s" s="2">
-        <v>3164</v>
+        <v>3162</v>
       </c>
       <c r="D1454" s="2"/>
     </row>
@@ -27988,10 +28010,10 @@
         <v>48</v>
       </c>
       <c r="B1455" t="s" s="2">
-        <v>3165</v>
+        <v>3163</v>
       </c>
       <c r="C1455" t="s" s="2">
-        <v>3166</v>
+        <v>3164</v>
       </c>
       <c r="D1455" s="2"/>
     </row>
@@ -28000,10 +28022,10 @@
         <v>48</v>
       </c>
       <c r="B1456" t="s" s="2">
-        <v>3167</v>
+        <v>3165</v>
       </c>
       <c r="C1456" t="s" s="2">
-        <v>3168</v>
+        <v>3166</v>
       </c>
       <c r="D1456" s="2"/>
     </row>
@@ -28012,10 +28034,10 @@
         <v>48</v>
       </c>
       <c r="B1457" t="s" s="2">
-        <v>3169</v>
+        <v>3167</v>
       </c>
       <c r="C1457" t="s" s="2">
-        <v>3170</v>
+        <v>3168</v>
       </c>
       <c r="D1457" s="2"/>
     </row>
@@ -28024,10 +28046,10 @@
         <v>48</v>
       </c>
       <c r="B1458" t="s" s="2">
-        <v>3171</v>
+        <v>3169</v>
       </c>
       <c r="C1458" t="s" s="2">
-        <v>3172</v>
+        <v>3170</v>
       </c>
       <c r="D1458" s="2"/>
     </row>
@@ -28036,10 +28058,10 @@
         <v>48</v>
       </c>
       <c r="B1459" t="s" s="2">
-        <v>3173</v>
+        <v>3171</v>
       </c>
       <c r="C1459" t="s" s="2">
-        <v>3174</v>
+        <v>3172</v>
       </c>
       <c r="D1459" s="2"/>
     </row>
@@ -28048,10 +28070,10 @@
         <v>48</v>
       </c>
       <c r="B1460" t="s" s="2">
-        <v>3175</v>
+        <v>3173</v>
       </c>
       <c r="C1460" t="s" s="2">
-        <v>3176</v>
+        <v>3174</v>
       </c>
       <c r="D1460" s="2"/>
     </row>
@@ -28060,13 +28082,13 @@
         <v>48</v>
       </c>
       <c r="B1461" t="s" s="2">
+        <v>3175</v>
+      </c>
+      <c r="C1461" t="s" s="2">
+        <v>3176</v>
+      </c>
+      <c r="D1461" t="s" s="2">
         <v>3177</v>
-      </c>
-      <c r="C1461" t="s" s="2">
-        <v>3178</v>
-      </c>
-      <c r="D1461" t="s" s="2">
-        <v>3179</v>
       </c>
     </row>
     <row r="1462">
@@ -28074,10 +28096,10 @@
         <v>48</v>
       </c>
       <c r="B1462" t="s" s="2">
-        <v>3180</v>
+        <v>3178</v>
       </c>
       <c r="C1462" t="s" s="2">
-        <v>3181</v>
+        <v>3179</v>
       </c>
       <c r="D1462" s="2"/>
     </row>
@@ -28086,10 +28108,10 @@
         <v>48</v>
       </c>
       <c r="B1463" t="s" s="2">
-        <v>3182</v>
+        <v>3180</v>
       </c>
       <c r="C1463" t="s" s="2">
-        <v>3183</v>
+        <v>3181</v>
       </c>
       <c r="D1463" s="2"/>
     </row>
@@ -28098,10 +28120,10 @@
         <v>48</v>
       </c>
       <c r="B1464" t="s" s="2">
-        <v>3184</v>
+        <v>3182</v>
       </c>
       <c r="C1464" t="s" s="2">
-        <v>3185</v>
+        <v>3183</v>
       </c>
       <c r="D1464" s="2"/>
     </row>
@@ -28110,10 +28132,10 @@
         <v>48</v>
       </c>
       <c r="B1465" t="s" s="2">
-        <v>3186</v>
+        <v>3184</v>
       </c>
       <c r="C1465" t="s" s="2">
-        <v>3187</v>
+        <v>3185</v>
       </c>
       <c r="D1465" s="2"/>
     </row>
@@ -28122,10 +28144,10 @@
         <v>48</v>
       </c>
       <c r="B1466" t="s" s="2">
-        <v>3188</v>
+        <v>3186</v>
       </c>
       <c r="C1466" t="s" s="2">
-        <v>3189</v>
+        <v>3187</v>
       </c>
       <c r="D1466" s="2"/>
     </row>
@@ -28134,10 +28156,10 @@
         <v>48</v>
       </c>
       <c r="B1467" t="s" s="2">
-        <v>3190</v>
+        <v>3188</v>
       </c>
       <c r="C1467" t="s" s="2">
-        <v>3191</v>
+        <v>3189</v>
       </c>
       <c r="D1467" s="2"/>
     </row>
@@ -28146,10 +28168,10 @@
         <v>48</v>
       </c>
       <c r="B1468" t="s" s="2">
-        <v>3192</v>
+        <v>3190</v>
       </c>
       <c r="C1468" t="s" s="2">
-        <v>3193</v>
+        <v>3191</v>
       </c>
       <c r="D1468" s="2"/>
     </row>
@@ -28158,10 +28180,10 @@
         <v>48</v>
       </c>
       <c r="B1469" t="s" s="2">
-        <v>3194</v>
+        <v>3192</v>
       </c>
       <c r="C1469" t="s" s="2">
-        <v>3195</v>
+        <v>3193</v>
       </c>
       <c r="D1469" s="2"/>
     </row>
@@ -28170,10 +28192,10 @@
         <v>48</v>
       </c>
       <c r="B1470" t="s" s="2">
-        <v>3196</v>
+        <v>3194</v>
       </c>
       <c r="C1470" t="s" s="2">
-        <v>3197</v>
+        <v>3195</v>
       </c>
       <c r="D1470" s="2"/>
     </row>
@@ -28182,10 +28204,10 @@
         <v>48</v>
       </c>
       <c r="B1471" t="s" s="2">
-        <v>3198</v>
+        <v>3196</v>
       </c>
       <c r="C1471" t="s" s="2">
-        <v>3199</v>
+        <v>3197</v>
       </c>
       <c r="D1471" s="2"/>
     </row>
@@ -28194,10 +28216,10 @@
         <v>48</v>
       </c>
       <c r="B1472" t="s" s="2">
-        <v>3200</v>
+        <v>3198</v>
       </c>
       <c r="C1472" t="s" s="2">
-        <v>3201</v>
+        <v>3199</v>
       </c>
       <c r="D1472" s="2"/>
     </row>
@@ -28206,10 +28228,10 @@
         <v>48</v>
       </c>
       <c r="B1473" t="s" s="2">
-        <v>3202</v>
+        <v>3200</v>
       </c>
       <c r="C1473" t="s" s="2">
-        <v>3203</v>
+        <v>3201</v>
       </c>
       <c r="D1473" s="2"/>
     </row>
@@ -28218,10 +28240,10 @@
         <v>48</v>
       </c>
       <c r="B1474" t="s" s="2">
-        <v>3204</v>
+        <v>3202</v>
       </c>
       <c r="C1474" t="s" s="2">
-        <v>3205</v>
+        <v>3203</v>
       </c>
       <c r="D1474" s="2"/>
     </row>
@@ -28230,10 +28252,10 @@
         <v>48</v>
       </c>
       <c r="B1475" t="s" s="2">
-        <v>3206</v>
+        <v>3204</v>
       </c>
       <c r="C1475" t="s" s="2">
-        <v>3207</v>
+        <v>3205</v>
       </c>
       <c r="D1475" s="2"/>
     </row>
@@ -28242,10 +28264,10 @@
         <v>48</v>
       </c>
       <c r="B1476" t="s" s="2">
-        <v>3208</v>
+        <v>3206</v>
       </c>
       <c r="C1476" t="s" s="2">
-        <v>3209</v>
+        <v>3207</v>
       </c>
       <c r="D1476" s="2"/>
     </row>
@@ -28254,10 +28276,10 @@
         <v>48</v>
       </c>
       <c r="B1477" t="s" s="2">
-        <v>3210</v>
+        <v>3208</v>
       </c>
       <c r="C1477" t="s" s="2">
-        <v>3211</v>
+        <v>3209</v>
       </c>
       <c r="D1477" s="2"/>
     </row>
@@ -28266,10 +28288,10 @@
         <v>48</v>
       </c>
       <c r="B1478" t="s" s="2">
-        <v>3212</v>
+        <v>3210</v>
       </c>
       <c r="C1478" t="s" s="2">
-        <v>3213</v>
+        <v>3211</v>
       </c>
       <c r="D1478" s="2"/>
     </row>
@@ -28278,10 +28300,10 @@
         <v>48</v>
       </c>
       <c r="B1479" t="s" s="2">
-        <v>3214</v>
+        <v>3212</v>
       </c>
       <c r="C1479" t="s" s="2">
-        <v>3215</v>
+        <v>3213</v>
       </c>
       <c r="D1479" s="2"/>
     </row>
@@ -28290,10 +28312,10 @@
         <v>48</v>
       </c>
       <c r="B1480" t="s" s="2">
-        <v>3216</v>
+        <v>3214</v>
       </c>
       <c r="C1480" t="s" s="2">
-        <v>3217</v>
+        <v>3215</v>
       </c>
       <c r="D1480" s="2"/>
     </row>
@@ -28302,10 +28324,10 @@
         <v>48</v>
       </c>
       <c r="B1481" t="s" s="2">
-        <v>3218</v>
+        <v>3216</v>
       </c>
       <c r="C1481" t="s" s="2">
-        <v>3219</v>
+        <v>3217</v>
       </c>
       <c r="D1481" s="2"/>
     </row>
@@ -28314,12 +28336,72 @@
         <v>48</v>
       </c>
       <c r="B1482" t="s" s="2">
+        <v>3218</v>
+      </c>
+      <c r="C1482" t="s" s="2">
+        <v>3219</v>
+      </c>
+      <c r="D1482" s="2"/>
+    </row>
+    <row r="1483">
+      <c r="A1483" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B1483" t="s" s="2">
         <v>3220</v>
       </c>
-      <c r="C1482" t="s" s="2">
+      <c r="C1483" t="s" s="2">
         <v>3221</v>
       </c>
-      <c r="D1482" s="2"/>
+      <c r="D1483" s="2"/>
+    </row>
+    <row r="1484">
+      <c r="A1484" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B1484" t="s" s="2">
+        <v>3222</v>
+      </c>
+      <c r="C1484" t="s" s="2">
+        <v>3223</v>
+      </c>
+      <c r="D1484" s="2"/>
+    </row>
+    <row r="1485">
+      <c r="A1485" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B1485" t="s" s="2">
+        <v>3224</v>
+      </c>
+      <c r="C1485" t="s" s="2">
+        <v>3225</v>
+      </c>
+      <c r="D1485" s="2"/>
+    </row>
+    <row r="1486">
+      <c r="A1486" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B1486" t="s" s="2">
+        <v>3226</v>
+      </c>
+      <c r="C1486" t="s" s="2">
+        <v>3227</v>
+      </c>
+      <c r="D1486" s="2"/>
+    </row>
+    <row r="1487">
+      <c r="A1487" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B1487" t="s" s="2">
+        <v>3228</v>
+      </c>
+      <c r="C1487" t="s" s="2">
+        <v>3229</v>
+      </c>
+      <c r="D1487" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ig/main/CodeSystem-TRE-R210-ActeSpecifique.xlsx
+++ b/ig/main/CodeSystem-TRE-R210-ActeSpecifique.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
